--- a/output3.xlsx
+++ b/output3.xlsx
@@ -462,7 +462,7 @@
         <v>2.31</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999999843099935</v>
+        <v>0.9999999856050678</v>
       </c>
     </row>
     <row r="3">
@@ -513,7 +513,7 @@
         <v>1.21</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9946200021291298</v>
+        <v>0.9952378498607801</v>
       </c>
     </row>
     <row r="6">
@@ -530,7 +530,7 @@
         <v>2.36</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9721648034769114</v>
+        <v>0.9743114979048656</v>
       </c>
     </row>
     <row r="7">
@@ -547,7 +547,7 @@
         <v>4.21</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9999882952242916</v>
+        <v>0.999988064868312</v>
       </c>
     </row>
     <row r="8">
@@ -564,7 +564,7 @@
         <v>0.93</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9929434321456132</v>
+        <v>0.9936886077221626</v>
       </c>
     </row>
     <row r="9">
@@ -581,7 +581,7 @@
         <v>3.77</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9999999196807817</v>
+        <v>0.9999999207046701</v>
       </c>
     </row>
     <row r="10">
@@ -598,7 +598,7 @@
         <v>2</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999999999999929</v>
+        <v>0.9999999999999933</v>
       </c>
     </row>
     <row r="11">
@@ -632,7 +632,7 @@
         <v>5.86</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9729812881330622</v>
+        <v>0.9679802352472952</v>
       </c>
     </row>
     <row r="13">
@@ -649,7 +649,7 @@
         <v>6.62</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9999999999999956</v>
+        <v>0.9999999999999947</v>
       </c>
     </row>
     <row r="14">
@@ -666,7 +666,7 @@
         <v>0.21</v>
       </c>
       <c r="E14" t="n">
-        <v>0.988402737728964</v>
+        <v>0.9894716034530103</v>
       </c>
     </row>
     <row r="15">
@@ -683,7 +683,7 @@
         <v>3.65</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9999999994829794</v>
+        <v>0.9999999994935789</v>
       </c>
     </row>
     <row r="16">
@@ -700,7 +700,7 @@
         <v>2.27</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9999989562897513</v>
+        <v>0.999999042881442</v>
       </c>
     </row>
     <row r="17">
@@ -717,7 +717,7 @@
         <v>2.07</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9999983548755252</v>
+        <v>0.9999985083623675</v>
       </c>
     </row>
     <row r="18">
@@ -734,7 +734,7 @@
         <v>1.01</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9435886284997858</v>
+        <v>0.9488734300876567</v>
       </c>
     </row>
     <row r="19">
@@ -768,7 +768,7 @@
         <v>1.79</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9936483833431768</v>
+        <v>0.9942356540255332</v>
       </c>
     </row>
     <row r="21">
@@ -785,7 +785,7 @@
         <v>1.49</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9999999988481734</v>
+        <v>0.9999999989600488</v>
       </c>
     </row>
     <row r="22">
@@ -802,7 +802,7 @@
         <v>0.62</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9656079100509432</v>
+        <v>0.9689161659790998</v>
       </c>
     </row>
     <row r="23">
@@ -819,7 +819,7 @@
         <v>2.66</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9999999997213802</v>
+        <v>0.9999999997426432</v>
       </c>
     </row>
     <row r="24">
@@ -836,7 +836,7 @@
         <v>1.98</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9999999999987597</v>
+        <v>0.9999999999988702</v>
       </c>
     </row>
     <row r="25">
@@ -853,7 +853,7 @@
         <v>1.7</v>
       </c>
       <c r="E25" t="n">
-        <v>0.999999999999964</v>
+        <v>0.9999999999999676</v>
       </c>
     </row>
     <row r="26">
@@ -870,7 +870,7 @@
         <v>4.76</v>
       </c>
       <c r="E26" t="n">
-        <v>0.999999999999686</v>
+        <v>0.9999999999996652</v>
       </c>
     </row>
     <row r="27">
@@ -904,7 +904,7 @@
         <v>3.62</v>
       </c>
       <c r="E28" t="n">
-        <v>0.999999513255362</v>
+        <v>0.9999995239680964</v>
       </c>
     </row>
     <row r="29">
@@ -921,7 +921,7 @@
         <v>2.38</v>
       </c>
       <c r="E29" t="n">
-        <v>0.999999969098484</v>
+        <v>0.9999999715823416</v>
       </c>
     </row>
     <row r="30">
@@ -938,7 +938,7 @@
         <v>2.76</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9999336383473438</v>
+        <v>0.9999382785666708</v>
       </c>
     </row>
     <row r="31">
@@ -972,7 +972,7 @@
         <v>1.79</v>
       </c>
       <c r="E32" t="n">
-        <v>0.999999994698805</v>
+        <v>0.9999999951899392</v>
       </c>
     </row>
     <row r="33">
@@ -1006,7 +1006,7 @@
         <v>0.78</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9999999999312243</v>
+        <v>0.9999999999380522</v>
       </c>
     </row>
     <row r="35">
@@ -1023,7 +1023,7 @@
         <v>4.99</v>
       </c>
       <c r="E35" t="n">
-        <v>0.998232884146841</v>
+        <v>0.9980757188590533</v>
       </c>
     </row>
     <row r="36">
@@ -1040,7 +1040,7 @@
         <v>1.39</v>
       </c>
       <c r="E36" t="n">
-        <v>0.9998743019321009</v>
+        <v>0.9998870189867669</v>
       </c>
     </row>
     <row r="37">
@@ -1057,7 +1057,7 @@
         <v>0.4</v>
       </c>
       <c r="E37" t="n">
-        <v>0.9999999988896793</v>
+        <v>0.9999999990011266</v>
       </c>
     </row>
     <row r="38">
@@ -1074,7 +1074,7 @@
         <v>3.14</v>
       </c>
       <c r="E38" t="n">
-        <v>0.999997793533175</v>
+        <v>0.9999979056965379</v>
       </c>
     </row>
     <row r="39">
@@ -1091,7 +1091,7 @@
         <v>3.07</v>
       </c>
       <c r="E39" t="n">
-        <v>0.999829471061548</v>
+        <v>0.9998398795357077</v>
       </c>
     </row>
     <row r="40">
@@ -1125,7 +1125,7 @@
         <v>1.52</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9999999987202117</v>
+        <v>0.9999999988467976</v>
       </c>
     </row>
     <row r="42">
@@ -1142,7 +1142,7 @@
         <v>6.29</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9462804192840124</v>
+        <v>0.9330528706604355</v>
       </c>
     </row>
     <row r="43">
@@ -1159,7 +1159,7 @@
         <v>0.74</v>
       </c>
       <c r="E43" t="n">
-        <v>0.999824168987193</v>
+        <v>0.9998413314139997</v>
       </c>
     </row>
     <row r="44">
@@ -1176,7 +1176,7 @@
         <v>4</v>
       </c>
       <c r="E44" t="n">
-        <v>0.6383383446076925</v>
+        <v>0.6374885731966109</v>
       </c>
     </row>
     <row r="45">
@@ -1193,7 +1193,7 @@
         <v>6.74</v>
       </c>
       <c r="E45" t="n">
-        <v>0.9914191048563979</v>
+        <v>0.9885492238326238</v>
       </c>
     </row>
     <row r="46">
@@ -1210,7 +1210,7 @@
         <v>1.1</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9986827305518052</v>
+        <v>0.9988286074583465</v>
       </c>
     </row>
     <row r="47">
@@ -1227,7 +1227,7 @@
         <v>2.27</v>
       </c>
       <c r="E47" t="n">
-        <v>0.9999939694623158</v>
+        <v>0.9999944633428215</v>
       </c>
     </row>
     <row r="48">
@@ -1244,7 +1244,7 @@
         <v>3.17</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9999999806986206</v>
+        <v>0.9999999818847957</v>
       </c>
     </row>
     <row r="49">
@@ -1261,7 +1261,7 @@
         <v>-0.79</v>
       </c>
       <c r="E49" t="n">
-        <v>0.9999993952555587</v>
+        <v>0.9999994373661913</v>
       </c>
     </row>
     <row r="50">
@@ -1278,7 +1278,7 @@
         <v>1.65</v>
       </c>
       <c r="E50" t="n">
-        <v>0.9999999999999987</v>
+        <v>0.9999999999999991</v>
       </c>
     </row>
     <row r="51">
@@ -1312,7 +1312,7 @@
         <v>1.29</v>
       </c>
       <c r="E52" t="n">
-        <v>0.9971370592035124</v>
+        <v>0.9974354987841447</v>
       </c>
     </row>
     <row r="53">
@@ -1346,7 +1346,7 @@
         <v>0.53</v>
       </c>
       <c r="E54" t="n">
-        <v>0.999999999893908</v>
+        <v>0.9999999999049547</v>
       </c>
     </row>
     <row r="55">
@@ -1380,7 +1380,7 @@
         <v>1.79</v>
       </c>
       <c r="E56" t="n">
-        <v>0.9999996356750727</v>
+        <v>0.9999996693680719</v>
       </c>
     </row>
     <row r="57">
@@ -1397,7 +1397,7 @@
         <v>-0.24</v>
       </c>
       <c r="E57" t="n">
-        <v>0.999991667649925</v>
+        <v>0.9999923758825452</v>
       </c>
     </row>
     <row r="58">
@@ -1414,7 +1414,7 @@
         <v>2.92</v>
       </c>
       <c r="E58" t="n">
-        <v>0.9999997702814605</v>
+        <v>0.9999998097670048</v>
       </c>
     </row>
     <row r="59">
@@ -1431,7 +1431,7 @@
         <v>0.85</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9999703817508822</v>
+        <v>0.9999733205372116</v>
       </c>
     </row>
     <row r="60">
@@ -1448,7 +1448,7 @@
         <v>3.31</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9999999917780245</v>
+        <v>0.9999999921150646</v>
       </c>
     </row>
     <row r="61">
@@ -1465,7 +1465,7 @@
         <v>0.19</v>
       </c>
       <c r="E61" t="n">
-        <v>0.9999991371264475</v>
+        <v>0.9999992183247306</v>
       </c>
     </row>
     <row r="62">
@@ -1482,7 +1482,7 @@
         <v>3.01</v>
       </c>
       <c r="E62" t="n">
-        <v>0.9766297298037152</v>
+        <v>0.9778788650303715</v>
       </c>
     </row>
     <row r="63">
@@ -1499,7 +1499,7 @@
         <v>-0.95</v>
       </c>
       <c r="E63" t="n">
-        <v>0.9612317702074983</v>
+        <v>0.9633464781108579</v>
       </c>
     </row>
     <row r="64">
@@ -1516,7 +1516,7 @@
         <v>-0.35</v>
       </c>
       <c r="E64" t="n">
-        <v>0.9242026255499616</v>
+        <v>0.9300769477035694</v>
       </c>
     </row>
     <row r="65">
@@ -1533,7 +1533,7 @@
         <v>2.62</v>
       </c>
       <c r="E65" t="n">
-        <v>0.9735537210041474</v>
+        <v>0.9754073429442826</v>
       </c>
     </row>
     <row r="66">
@@ -1550,7 +1550,7 @@
         <v>0.52</v>
       </c>
       <c r="E66" t="n">
-        <v>0.999994037709936</v>
+        <v>0.9999946263953136</v>
       </c>
     </row>
     <row r="67">
@@ -1567,7 +1567,7 @@
         <v>0.36</v>
       </c>
       <c r="E67" t="n">
-        <v>0.9999999999992859</v>
+        <v>0.999999999999357</v>
       </c>
     </row>
     <row r="68">
@@ -1584,7 +1584,7 @@
         <v>1.73</v>
       </c>
       <c r="E68" t="n">
-        <v>0.9999997752377339</v>
+        <v>0.9999997962855519</v>
       </c>
     </row>
     <row r="69">
@@ -1601,7 +1601,7 @@
         <v>2.11</v>
       </c>
       <c r="E69" t="n">
-        <v>0.9999842778777767</v>
+        <v>0.9999857033267233</v>
       </c>
     </row>
     <row r="70">
@@ -1618,7 +1618,7 @@
         <v>2.5</v>
       </c>
       <c r="E70" t="n">
-        <v>0.999999999998725</v>
+        <v>0.9999999999988227</v>
       </c>
     </row>
     <row r="71">
@@ -1635,7 +1635,7 @@
         <v>1.64</v>
       </c>
       <c r="E71" t="n">
-        <v>0.9999998409888013</v>
+        <v>0.9999998570048443</v>
       </c>
     </row>
     <row r="72">
@@ -1669,7 +1669,7 @@
         <v>2.97</v>
       </c>
       <c r="E73" t="n">
-        <v>0.9999999999636886</v>
+        <v>0.9999999999660449</v>
       </c>
     </row>
     <row r="74">
@@ -1686,7 +1686,7 @@
         <v>2.4</v>
       </c>
       <c r="E74" t="n">
-        <v>0.999999291978581</v>
+        <v>0.9999993485356605</v>
       </c>
     </row>
     <row r="75">
@@ -1703,7 +1703,7 @@
         <v>0.67</v>
       </c>
       <c r="E75" t="n">
-        <v>0.9999999985687769</v>
+        <v>0.9999999987081485</v>
       </c>
     </row>
     <row r="76">
@@ -1720,7 +1720,7 @@
         <v>2.69</v>
       </c>
       <c r="E76" t="n">
-        <v>0.9646856596079972</v>
+        <v>0.9673969639698315</v>
       </c>
     </row>
     <row r="77">
@@ -1737,7 +1737,7 @@
         <v>2.87</v>
       </c>
       <c r="E77" t="n">
-        <v>0.9999999999997589</v>
+        <v>0.999999999999774</v>
       </c>
     </row>
     <row r="78">
@@ -1754,7 +1754,7 @@
         <v>4.61</v>
       </c>
       <c r="E78" t="n">
-        <v>0.9999752774835355</v>
+        <v>0.9999741076084213</v>
       </c>
     </row>
     <row r="79">
@@ -1771,7 +1771,7 @@
         <v>2.18</v>
       </c>
       <c r="E79" t="n">
-        <v>0.9999979889040839</v>
+        <v>0.9999981651306145</v>
       </c>
     </row>
     <row r="80">
@@ -1788,7 +1788,7 @@
         <v>4.4</v>
       </c>
       <c r="E80" t="n">
-        <v>0.9999999824124625</v>
+        <v>0.9999999818186264</v>
       </c>
     </row>
     <row r="81">
@@ -1805,7 +1805,7 @@
         <v>1.67</v>
       </c>
       <c r="E81" t="n">
-        <v>0.9999530666453893</v>
+        <v>0.999957756097246</v>
       </c>
     </row>
     <row r="82">
@@ -1822,7 +1822,7 @@
         <v>1.2</v>
       </c>
       <c r="E82" t="n">
-        <v>0.9425849138695005</v>
+        <v>0.9479383824131649</v>
       </c>
     </row>
     <row r="83">
@@ -1856,7 +1856,7 @@
         <v>3.34</v>
       </c>
       <c r="E84" t="n">
-        <v>0.9984244360740269</v>
+        <v>0.9984845257397823</v>
       </c>
     </row>
     <row r="85">
@@ -1873,7 +1873,7 @@
         <v>2.64</v>
       </c>
       <c r="E85" t="n">
-        <v>0.9999999994603184</v>
+        <v>0.9999999994986553</v>
       </c>
     </row>
     <row r="86">
@@ -1890,7 +1890,7 @@
         <v>3.2</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9998711598730231</v>
+        <v>0.9998776519493385</v>
       </c>
     </row>
     <row r="87">
@@ -1907,7 +1907,7 @@
         <v>1.66</v>
       </c>
       <c r="E87" t="n">
-        <v>0.9999998427530826</v>
+        <v>0.9999998581763817</v>
       </c>
     </row>
     <row r="88">
@@ -1924,7 +1924,7 @@
         <v>2.55</v>
       </c>
       <c r="E88" t="n">
-        <v>0.999999999998515</v>
+        <v>0.9999999999986247</v>
       </c>
     </row>
     <row r="89">
@@ -1941,7 +1941,7 @@
         <v>1.99</v>
       </c>
       <c r="E89" t="n">
-        <v>0.9999994909335482</v>
+        <v>0.9999995375213343</v>
       </c>
     </row>
     <row r="90">
@@ -1958,7 +1958,7 @@
         <v>0.6</v>
       </c>
       <c r="E90" t="n">
-        <v>0.9999999932957055</v>
+        <v>0.9999999939440118</v>
       </c>
     </row>
     <row r="91">
@@ -1975,7 +1975,7 @@
         <v>1.56</v>
       </c>
       <c r="E91" t="n">
-        <v>0.999999999999849</v>
+        <v>0.999999999999865</v>
       </c>
     </row>
     <row r="92">
@@ -1992,7 +1992,7 @@
         <v>4.12</v>
       </c>
       <c r="E92" t="n">
-        <v>0.9999999801005985</v>
+        <v>0.9999999798532972</v>
       </c>
     </row>
     <row r="93">
@@ -2009,7 +2009,7 @@
         <v>3.4</v>
       </c>
       <c r="E93" t="n">
-        <v>0.9999999999998912</v>
+        <v>0.9999999999998952</v>
       </c>
     </row>
     <row r="94">
@@ -2026,7 +2026,7 @@
         <v>3.67</v>
       </c>
       <c r="E94" t="n">
-        <v>0.9999999999978026</v>
+        <v>0.9999999999978497</v>
       </c>
     </row>
     <row r="95">
@@ -2043,7 +2043,7 @@
         <v>4.14</v>
       </c>
       <c r="E95" t="n">
-        <v>0.9999999999999223</v>
+        <v>0.9999999999999214</v>
       </c>
     </row>
     <row r="96">
@@ -2060,7 +2060,7 @@
         <v>1.18</v>
       </c>
       <c r="E96" t="n">
-        <v>0.9999999999928431</v>
+        <v>0.9999999999940705</v>
       </c>
     </row>
     <row r="97">
@@ -2077,7 +2077,7 @@
         <v>3.63</v>
       </c>
       <c r="E97" t="n">
-        <v>0.9999998201514677</v>
+        <v>0.9999998243749529</v>
       </c>
     </row>
     <row r="98">
@@ -2111,7 +2111,7 @@
         <v>1.74</v>
       </c>
       <c r="E99" t="n">
-        <v>0.998031609422087</v>
+        <v>0.9982278153905231</v>
       </c>
     </row>
     <row r="100">
@@ -2128,7 +2128,7 @@
         <v>0.91</v>
       </c>
       <c r="E100" t="n">
-        <v>0.9998329478450083</v>
+        <v>0.9998501827578935</v>
       </c>
     </row>
     <row r="101">
@@ -2145,7 +2145,7 @@
         <v>3.61</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9999999770472294</v>
+        <v>0.9999999775843962</v>
       </c>
     </row>
     <row r="102">
@@ -2162,7 +2162,7 @@
         <v>3.37</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9999999990048414</v>
+        <v>0.9999999990416231</v>
       </c>
     </row>
     <row r="103">
@@ -2213,7 +2213,7 @@
         <v>2.63</v>
       </c>
       <c r="E105" t="n">
-        <v>0.9999999992977275</v>
+        <v>0.9999999993474056</v>
       </c>
     </row>
     <row r="106">
@@ -2230,7 +2230,7 @@
         <v>1.82</v>
       </c>
       <c r="E106" t="n">
-        <v>0.9589535725357969</v>
+        <v>0.9626407714875456</v>
       </c>
     </row>
     <row r="107">
@@ -2247,7 +2247,7 @@
         <v>4.3</v>
       </c>
       <c r="E107" t="n">
-        <v>0.9999999999920948</v>
+        <v>0.9999999999918945</v>
       </c>
     </row>
     <row r="108">
@@ -2264,7 +2264,7 @@
         <v>1.06</v>
       </c>
       <c r="E108" t="n">
-        <v>0.999952387045642</v>
+        <v>0.999957081866385</v>
       </c>
     </row>
     <row r="109">
@@ -2281,7 +2281,7 @@
         <v>1.21</v>
       </c>
       <c r="E109" t="n">
-        <v>0.9999838458004597</v>
+        <v>0.9999855160516056</v>
       </c>
     </row>
     <row r="110">
@@ -2298,7 +2298,7 @@
         <v>2.87</v>
       </c>
       <c r="E110" t="n">
-        <v>0.9999944108972896</v>
+        <v>0.999994760909924</v>
       </c>
     </row>
     <row r="111">
@@ -2315,7 +2315,7 @@
         <v>2.09</v>
       </c>
       <c r="E111" t="n">
-        <v>0.9999979592381991</v>
+        <v>0.9999981380896018</v>
       </c>
     </row>
     <row r="112">
@@ -2332,7 +2332,7 @@
         <v>2.94</v>
       </c>
       <c r="E112" t="n">
-        <v>0.9376700442378761</v>
+        <v>0.9410532339451267</v>
       </c>
     </row>
     <row r="113">
@@ -2349,7 +2349,7 @@
         <v>4.02</v>
       </c>
       <c r="E113" t="n">
-        <v>0.9999997643121599</v>
+        <v>0.9999997636506501</v>
       </c>
     </row>
     <row r="114">
@@ -2366,7 +2366,7 @@
         <v>3.07</v>
       </c>
       <c r="E114" t="n">
-        <v>0.9999999999139004</v>
+        <v>0.9999999999183653</v>
       </c>
     </row>
     <row r="115">
@@ -2383,7 +2383,7 @@
         <v>3.3</v>
       </c>
       <c r="E115" t="n">
-        <v>0.9999999488314493</v>
+        <v>0.9999999509120702</v>
       </c>
     </row>
     <row r="116">
@@ -2400,7 +2400,7 @@
         <v>1.83</v>
       </c>
       <c r="E116" t="n">
-        <v>0.9881167479098495</v>
+        <v>0.9892312883639522</v>
       </c>
     </row>
     <row r="117">
@@ -2417,7 +2417,7 @@
         <v>3.74</v>
       </c>
       <c r="E117" t="n">
-        <v>0.999999999556767</v>
+        <v>0.9999999995632645</v>
       </c>
     </row>
     <row r="118">
@@ -2451,7 +2451,7 @@
         <v>1.88</v>
       </c>
       <c r="E119" t="n">
-        <v>0.9999903068684829</v>
+        <v>0.9999912028780985</v>
       </c>
     </row>
     <row r="120">
@@ -2468,7 +2468,7 @@
         <v>0.04</v>
       </c>
       <c r="E120" t="n">
-        <v>0.9999357078829147</v>
+        <v>0.9999417236630078</v>
       </c>
     </row>
     <row r="121">
@@ -2485,7 +2485,7 @@
         <v>2.82</v>
       </c>
       <c r="E121" t="n">
-        <v>0.9999999999898064</v>
+        <v>0.999999999990473</v>
       </c>
     </row>
     <row r="122">
@@ -2502,7 +2502,7 @@
         <v>1.08</v>
       </c>
       <c r="E122" t="n">
-        <v>0.9999999925860346</v>
+        <v>0.9999999933313486</v>
       </c>
     </row>
     <row r="123">
@@ -2519,7 +2519,7 @@
         <v>2.18</v>
       </c>
       <c r="E123" t="n">
-        <v>0.99999999999996</v>
+        <v>0.9999999999999636</v>
       </c>
     </row>
     <row r="124">
@@ -2536,7 +2536,7 @@
         <v>3.29</v>
       </c>
       <c r="E124" t="n">
-        <v>0.9999999992315347</v>
+        <v>0.9999999992847117</v>
       </c>
     </row>
     <row r="125">
@@ -2553,7 +2553,7 @@
         <v>1.65</v>
       </c>
       <c r="E125" t="n">
-        <v>0.9890911074922178</v>
+        <v>0.9901266066901666</v>
       </c>
     </row>
     <row r="126">
@@ -2604,7 +2604,7 @@
         <v>2.48</v>
       </c>
       <c r="E128" t="n">
-        <v>0.9999999789903662</v>
+        <v>0.999999980573514</v>
       </c>
     </row>
     <row r="129">
@@ -2621,7 +2621,7 @@
         <v>3.3</v>
       </c>
       <c r="E129" t="n">
-        <v>0.9991890023157518</v>
+        <v>0.9992225410612536</v>
       </c>
     </row>
     <row r="130">
@@ -2638,7 +2638,7 @@
         <v>0.86</v>
       </c>
       <c r="E130" t="n">
-        <v>0.9998058806778691</v>
+        <v>0.9998253923666428</v>
       </c>
     </row>
     <row r="131">
@@ -2655,7 +2655,7 @@
         <v>8.390000000000001</v>
       </c>
       <c r="E131" t="n">
-        <v>0.9999964705763246</v>
+        <v>0.9999938268068816</v>
       </c>
     </row>
     <row r="132">
@@ -2672,7 +2672,7 @@
         <v>2.91</v>
       </c>
       <c r="E132" t="n">
-        <v>0.9830178165738159</v>
+        <v>0.9840052461167945</v>
       </c>
     </row>
     <row r="133">
@@ -2689,7 +2689,7 @@
         <v>3.53</v>
       </c>
       <c r="E133" t="n">
-        <v>0.9999999562789782</v>
+        <v>0.999999957910481</v>
       </c>
     </row>
     <row r="134">
@@ -2706,7 +2706,7 @@
         <v>3.07</v>
       </c>
       <c r="E134" t="n">
-        <v>0.9999999956157786</v>
+        <v>0.999999995843821</v>
       </c>
     </row>
     <row r="135">
@@ -2740,7 +2740,7 @@
         <v>5.29</v>
       </c>
       <c r="E136" t="n">
-        <v>0.999291604483885</v>
+        <v>0.9992079213808266</v>
       </c>
     </row>
     <row r="137">
@@ -2757,7 +2757,7 @@
         <v>1.43</v>
       </c>
       <c r="E137" t="n">
-        <v>0.9999927613853522</v>
+        <v>0.9999934885667705</v>
       </c>
     </row>
     <row r="138">
@@ -2774,7 +2774,7 @@
         <v>2.65</v>
       </c>
       <c r="E138" t="n">
-        <v>0.9997613584978401</v>
+        <v>0.9997780278829994</v>
       </c>
     </row>
     <row r="139">
@@ -2791,7 +2791,7 @@
         <v>-0.51</v>
       </c>
       <c r="E139" t="n">
-        <v>0.8657769381473831</v>
+        <v>0.8743899826711068</v>
       </c>
     </row>
     <row r="140">
@@ -2808,7 +2808,7 @@
         <v>2.08</v>
       </c>
       <c r="E140" t="n">
-        <v>0.9999998743713173</v>
+        <v>0.9999998880016161</v>
       </c>
     </row>
     <row r="141">
@@ -2825,7 +2825,7 @@
         <v>2.15</v>
       </c>
       <c r="E141" t="n">
-        <v>0.9999999999723164</v>
+        <v>0.9999999999746909</v>
       </c>
     </row>
     <row r="142">
@@ -2876,7 +2876,7 @@
         <v>1.64</v>
       </c>
       <c r="E144" t="n">
-        <v>0.9999760638102514</v>
+        <v>0.9999783447170499</v>
       </c>
     </row>
     <row r="145">
@@ -2893,7 +2893,7 @@
         <v>1.52</v>
       </c>
       <c r="E145" t="n">
-        <v>0.999112806592979</v>
+        <v>0.9991979602488291</v>
       </c>
     </row>
     <row r="146">
@@ -2910,7 +2910,7 @@
         <v>0.65</v>
       </c>
       <c r="E146" t="n">
-        <v>0.9997419361575924</v>
+        <v>0.9997669909926438</v>
       </c>
     </row>
     <row r="147">
@@ -2927,7 +2927,7 @@
         <v>2.07</v>
       </c>
       <c r="E147" t="n">
-        <v>0.8719220498671653</v>
+        <v>0.8818448919819873</v>
       </c>
     </row>
     <row r="148">
@@ -2961,7 +2961,7 @@
         <v>1.03</v>
       </c>
       <c r="E149" t="n">
-        <v>0.9992833604603824</v>
+        <v>0.9993582664438426</v>
       </c>
     </row>
     <row r="150">
@@ -2978,7 +2978,7 @@
         <v>4.28</v>
       </c>
       <c r="E150" t="n">
-        <v>0.9999999997149711</v>
+        <v>0.9999999997086508</v>
       </c>
     </row>
     <row r="151">
@@ -2995,7 +2995,7 @@
         <v>-0.83</v>
       </c>
       <c r="E151" t="n">
-        <v>0.889444237243698</v>
+        <v>0.8953149295480186</v>
       </c>
     </row>
     <row r="152">
@@ -3012,7 +3012,7 @@
         <v>2.82</v>
       </c>
       <c r="E152" t="n">
-        <v>0.9999999999790781</v>
+        <v>0.9999999999804441</v>
       </c>
     </row>
     <row r="153">
@@ -3029,7 +3029,7 @@
         <v>2.35</v>
       </c>
       <c r="E153" t="n">
-        <v>0.9991998392943672</v>
+        <v>0.9992635992117359</v>
       </c>
     </row>
     <row r="154">
@@ -3046,7 +3046,7 @@
         <v>3.42</v>
       </c>
       <c r="E154" t="n">
-        <v>0.97426491294557</v>
+        <v>0.9752149118176838</v>
       </c>
     </row>
     <row r="155">
@@ -3063,7 +3063,7 @@
         <v>2.73</v>
       </c>
       <c r="E155" t="n">
-        <v>0.9999999996863407</v>
+        <v>0.9999999997079452</v>
       </c>
     </row>
     <row r="156">
@@ -3097,7 +3097,7 @@
         <v>0.57</v>
       </c>
       <c r="E157" t="n">
-        <v>0.9993403197963685</v>
+        <v>0.9994052698554756</v>
       </c>
     </row>
     <row r="158">
@@ -3114,7 +3114,7 @@
         <v>2.9</v>
       </c>
       <c r="E158" t="n">
-        <v>0.8515083356153617</v>
+        <v>0.8616968352199733</v>
       </c>
     </row>
     <row r="159">
@@ -3131,7 +3131,7 @@
         <v>-0.64</v>
       </c>
       <c r="E159" t="n">
-        <v>0.9999999985711794</v>
+        <v>0.9999999986695851</v>
       </c>
     </row>
     <row r="160">
@@ -3148,7 +3148,7 @@
         <v>1.57</v>
       </c>
       <c r="E160" t="n">
-        <v>0.999985506636865</v>
+        <v>0.999986983520029</v>
       </c>
     </row>
     <row r="161">
@@ -3165,7 +3165,7 @@
         <v>3.43</v>
       </c>
       <c r="E161" t="n">
-        <v>0.999997698029771</v>
+        <v>0.9999977791716881</v>
       </c>
     </row>
     <row r="162">
@@ -3182,2047 +3182,2047 @@
         <v>3.75</v>
       </c>
       <c r="E162" t="n">
-        <v>0.999999999996033</v>
+        <v>0.9999999999960898</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>2.16</v>
+        <v>4.77</v>
       </c>
       <c r="B163" t="n">
-        <v>171.64</v>
+        <v>139.87</v>
       </c>
       <c r="C163" t="n">
-        <v>41.32</v>
+        <v>-8.25</v>
       </c>
       <c r="D163" t="n">
-        <v>8.43</v>
+        <v>2.83</v>
       </c>
       <c r="E163" t="n">
-        <v>0.5553178467623429</v>
+        <v>0.9999999999885669</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>4.77</v>
+        <v>4.88</v>
       </c>
       <c r="B164" t="n">
-        <v>139.87</v>
+        <v>163.04</v>
       </c>
       <c r="C164" t="n">
-        <v>-8.25</v>
+        <v>15.91</v>
       </c>
       <c r="D164" t="n">
-        <v>2.83</v>
+        <v>5.28</v>
       </c>
       <c r="E164" t="n">
-        <v>0.9999999999876703</v>
+        <v>0.9999999999963052</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>4.88</v>
+        <v>4.05</v>
       </c>
       <c r="B165" t="n">
-        <v>163.04</v>
+        <v>405.59</v>
       </c>
       <c r="C165" t="n">
-        <v>15.91</v>
+        <v>2.93</v>
       </c>
       <c r="D165" t="n">
-        <v>5.28</v>
+        <v>4.89</v>
       </c>
       <c r="E165" t="n">
-        <v>0.9999999999967075</v>
+        <v>0.9999999873933413</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>4.05</v>
+        <v>2.7</v>
       </c>
       <c r="B166" t="n">
-        <v>405.59</v>
+        <v>378.63</v>
       </c>
       <c r="C166" t="n">
-        <v>2.93</v>
+        <v>-9.52</v>
       </c>
       <c r="D166" t="n">
-        <v>4.89</v>
+        <v>2.52</v>
       </c>
       <c r="E166" t="n">
-        <v>0.9999999883242113</v>
+        <v>0.9994303805960295</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>2.7</v>
+        <v>5.34</v>
       </c>
       <c r="B167" t="n">
-        <v>378.63</v>
+        <v>194.37</v>
       </c>
       <c r="C167" t="n">
-        <v>-9.52</v>
+        <v>0.68</v>
       </c>
       <c r="D167" t="n">
-        <v>2.52</v>
+        <v>2.46</v>
       </c>
       <c r="E167" t="n">
-        <v>0.9993771319730019</v>
+        <v>0.9999999999999885</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>5.34</v>
+        <v>2.89</v>
       </c>
       <c r="B168" t="n">
-        <v>194.37</v>
+        <v>212.52</v>
       </c>
       <c r="C168" t="n">
-        <v>0.68</v>
+        <v>2.56</v>
       </c>
       <c r="D168" t="n">
-        <v>2.46</v>
+        <v>4.12</v>
       </c>
       <c r="E168" t="n">
-        <v>0.9999999999999876</v>
+        <v>0.9999099898307223</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>2.89</v>
+        <v>4.04</v>
       </c>
       <c r="B169" t="n">
-        <v>212.52</v>
+        <v>124.91</v>
       </c>
       <c r="C169" t="n">
-        <v>2.56</v>
+        <v>3.21</v>
       </c>
       <c r="D169" t="n">
-        <v>4.12</v>
+        <v>1.43</v>
       </c>
       <c r="E169" t="n">
-        <v>0.9999109692099657</v>
+        <v>0.9999999869289883</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>4.04</v>
+        <v>5.38</v>
       </c>
       <c r="B170" t="n">
-        <v>124.91</v>
+        <v>582.2</v>
       </c>
       <c r="C170" t="n">
-        <v>3.21</v>
+        <v>8.15</v>
       </c>
       <c r="D170" t="n">
-        <v>1.43</v>
+        <v>3.81</v>
       </c>
       <c r="E170" t="n">
-        <v>0.9999999855057965</v>
+        <v>0.999999999999988</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>5.38</v>
+        <v>2.71</v>
       </c>
       <c r="B171" t="n">
-        <v>582.2</v>
+        <v>316.59</v>
       </c>
       <c r="C171" t="n">
-        <v>8.15</v>
+        <v>-3.53</v>
       </c>
       <c r="D171" t="n">
-        <v>3.81</v>
+        <v>2.23</v>
       </c>
       <c r="E171" t="n">
-        <v>0.9999999999999885</v>
+        <v>0.9996395686242464</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>2.71</v>
+        <v>5.48</v>
       </c>
       <c r="B172" t="n">
-        <v>316.59</v>
+        <v>172.38</v>
       </c>
       <c r="C172" t="n">
-        <v>-3.53</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="D172" t="n">
-        <v>2.23</v>
+        <v>1.17</v>
       </c>
       <c r="E172" t="n">
-        <v>0.999604743124326</v>
+        <v>0.9999999999999969</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>5.48</v>
+        <v>2.59</v>
       </c>
       <c r="B173" t="n">
-        <v>172.38</v>
+        <v>653.09</v>
       </c>
       <c r="C173" t="n">
-        <v>-0.5600000000000001</v>
+        <v>-7.93</v>
       </c>
       <c r="D173" t="n">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="E173" t="n">
-        <v>0.9999999999999964</v>
+        <v>0.9968973277413888</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>2.59</v>
+        <v>11.44</v>
       </c>
       <c r="B174" t="n">
-        <v>653.09</v>
+        <v>986.5700000000001</v>
       </c>
       <c r="C174" t="n">
-        <v>-7.93</v>
+        <v>41.69</v>
       </c>
       <c r="D174" t="n">
-        <v>1.22</v>
+        <v>-0.54</v>
       </c>
       <c r="E174" t="n">
-        <v>0.9965249086899997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>11.44</v>
+        <v>3.11</v>
       </c>
       <c r="B175" t="n">
-        <v>986.5700000000001</v>
+        <v>238.9</v>
       </c>
       <c r="C175" t="n">
-        <v>41.69</v>
+        <v>8.42</v>
       </c>
       <c r="D175" t="n">
-        <v>-0.54</v>
+        <v>1.97</v>
       </c>
       <c r="E175" t="n">
-        <v>1</v>
+        <v>0.9999802684648534</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>3.11</v>
+        <v>3.89</v>
       </c>
       <c r="B176" t="n">
-        <v>238.9</v>
+        <v>215.88</v>
       </c>
       <c r="C176" t="n">
-        <v>8.42</v>
+        <v>12.45</v>
       </c>
       <c r="D176" t="n">
-        <v>1.97</v>
+        <v>5.52</v>
       </c>
       <c r="E176" t="n">
-        <v>0.9999783411474659</v>
+        <v>0.9999999379407819</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>3.89</v>
+        <v>4.87</v>
       </c>
       <c r="B177" t="n">
-        <v>215.88</v>
+        <v>172.6</v>
       </c>
       <c r="C177" t="n">
-        <v>12.45</v>
+        <v>4.63</v>
       </c>
       <c r="D177" t="n">
-        <v>5.52</v>
+        <v>1.15</v>
       </c>
       <c r="E177" t="n">
-        <v>0.9999999461672952</v>
+        <v>0.9999999999967368</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>4.87</v>
+        <v>4.56</v>
       </c>
       <c r="B178" t="n">
-        <v>172.6</v>
+        <v>380.8</v>
       </c>
       <c r="C178" t="n">
-        <v>4.63</v>
+        <v>15.54</v>
       </c>
       <c r="D178" t="n">
-        <v>1.15</v>
+        <v>4.39</v>
       </c>
       <c r="E178" t="n">
-        <v>0.9999999999963776</v>
+        <v>0.9999999999141358</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>4.56</v>
+        <v>4.25</v>
       </c>
       <c r="B179" t="n">
-        <v>380.8</v>
+        <v>119.74</v>
       </c>
       <c r="C179" t="n">
-        <v>15.54</v>
+        <v>-6.49</v>
       </c>
       <c r="D179" t="n">
-        <v>4.39</v>
+        <v>1.12</v>
       </c>
       <c r="E179" t="n">
-        <v>0.9999999999169034</v>
+        <v>0.999999996989223</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>4.25</v>
+        <v>2.16</v>
       </c>
       <c r="B180" t="n">
-        <v>119.74</v>
+        <v>102.39</v>
       </c>
       <c r="C180" t="n">
-        <v>-6.49</v>
+        <v>17.49</v>
       </c>
       <c r="D180" t="n">
-        <v>1.12</v>
+        <v>2.04</v>
       </c>
       <c r="E180" t="n">
-        <v>0.9999999966301432</v>
+        <v>0.9903914746416861</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>2.16</v>
+        <v>2.74</v>
       </c>
       <c r="B181" t="n">
-        <v>102.39</v>
+        <v>144.76</v>
       </c>
       <c r="C181" t="n">
-        <v>17.49</v>
+        <v>10.14</v>
       </c>
       <c r="D181" t="n">
-        <v>2.04</v>
+        <v>2.39</v>
       </c>
       <c r="E181" t="n">
-        <v>0.9894566040160119</v>
+        <v>0.999759009584026</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>2.74</v>
+        <v>5.84</v>
       </c>
       <c r="B182" t="n">
-        <v>144.76</v>
+        <v>498.92</v>
       </c>
       <c r="C182" t="n">
-        <v>10.14</v>
+        <v>14.18</v>
       </c>
       <c r="D182" t="n">
-        <v>2.39</v>
+        <v>3.21</v>
       </c>
       <c r="E182" t="n">
-        <v>0.9997385581995917</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>5.84</v>
+        <v>2.98</v>
       </c>
       <c r="B183" t="n">
-        <v>498.92</v>
+        <v>245.29</v>
       </c>
       <c r="C183" t="n">
-        <v>14.18</v>
+        <v>7.6</v>
       </c>
       <c r="D183" t="n">
-        <v>3.21</v>
+        <v>1.4</v>
       </c>
       <c r="E183" t="n">
-        <v>1</v>
+        <v>0.9999426103757862</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>2.98</v>
+        <v>2.91</v>
       </c>
       <c r="B184" t="n">
-        <v>245.29</v>
+        <v>785.55</v>
       </c>
       <c r="C184" t="n">
-        <v>7.6</v>
+        <v>11.17</v>
       </c>
       <c r="D184" t="n">
-        <v>1.4</v>
+        <v>3.48</v>
       </c>
       <c r="E184" t="n">
-        <v>0.9999364288819776</v>
+        <v>0.9996413017440544</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>2.91</v>
+        <v>3.88</v>
       </c>
       <c r="B185" t="n">
-        <v>785.55</v>
+        <v>161.9</v>
       </c>
       <c r="C185" t="n">
-        <v>11.17</v>
+        <v>13.13</v>
       </c>
       <c r="D185" t="n">
-        <v>3.48</v>
+        <v>2.54</v>
       </c>
       <c r="E185" t="n">
-        <v>0.9996301928960696</v>
+        <v>0.9999999563313945</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>3.88</v>
+        <v>2.85</v>
       </c>
       <c r="B186" t="n">
-        <v>161.9</v>
+        <v>299.59</v>
       </c>
       <c r="C186" t="n">
-        <v>13.13</v>
+        <v>0.25</v>
       </c>
       <c r="D186" t="n">
-        <v>2.54</v>
+        <v>5.42</v>
       </c>
       <c r="E186" t="n">
-        <v>0.9999999528520738</v>
+        <v>0.9998132857586836</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>2.85</v>
+        <v>4.04</v>
       </c>
       <c r="B187" t="n">
-        <v>299.59</v>
+        <v>144.1</v>
       </c>
       <c r="C187" t="n">
-        <v>0.25</v>
+        <v>13.76</v>
       </c>
       <c r="D187" t="n">
-        <v>5.42</v>
+        <v>2.78</v>
       </c>
       <c r="E187" t="n">
-        <v>0.9998358296570822</v>
+        <v>0.9999999894435635</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>4.04</v>
+        <v>3.93</v>
       </c>
       <c r="B188" t="n">
-        <v>144.1</v>
+        <v>397.26</v>
       </c>
       <c r="C188" t="n">
-        <v>13.76</v>
+        <v>30.84</v>
       </c>
       <c r="D188" t="n">
-        <v>2.78</v>
+        <v>3.78</v>
       </c>
       <c r="E188" t="n">
-        <v>0.9999999887086451</v>
+        <v>0.9999998941057052</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>3.93</v>
+        <v>2.14</v>
       </c>
       <c r="B189" t="n">
-        <v>397.26</v>
+        <v>207.02</v>
       </c>
       <c r="C189" t="n">
-        <v>30.84</v>
+        <v>6.25</v>
       </c>
       <c r="D189" t="n">
-        <v>3.78</v>
+        <v>2.19</v>
       </c>
       <c r="E189" t="n">
-        <v>0.9999998911661067</v>
+        <v>0.9928786270703509</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>2.14</v>
+        <v>5.1</v>
       </c>
       <c r="B190" t="n">
-        <v>207.02</v>
+        <v>181.09</v>
       </c>
       <c r="C190" t="n">
-        <v>6.25</v>
+        <v>4.82</v>
       </c>
       <c r="D190" t="n">
-        <v>2.19</v>
+        <v>1.6</v>
       </c>
       <c r="E190" t="n">
-        <v>0.9922291705718583</v>
+        <v>0.9999999999997868</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>5.1</v>
+        <v>3.32</v>
       </c>
       <c r="B191" t="n">
-        <v>181.09</v>
+        <v>254.08</v>
       </c>
       <c r="C191" t="n">
-        <v>4.82</v>
+        <v>-2.47</v>
       </c>
       <c r="D191" t="n">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="E191" t="n">
-        <v>0.9999999999997646</v>
+        <v>0.999994264681162</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>3.32</v>
+        <v>2.01</v>
       </c>
       <c r="B192" t="n">
-        <v>254.08</v>
+        <v>145.58</v>
       </c>
       <c r="C192" t="n">
-        <v>-2.47</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="D192" t="n">
-        <v>1.52</v>
+        <v>6.11</v>
       </c>
       <c r="E192" t="n">
-        <v>0.9999936237953325</v>
+        <v>0.9704284985995923</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>2.01</v>
+        <v>6.9</v>
       </c>
       <c r="B193" t="n">
-        <v>145.58</v>
+        <v>1032.98</v>
       </c>
       <c r="C193" t="n">
-        <v>9.279999999999999</v>
+        <v>-6.36</v>
       </c>
       <c r="D193" t="n">
-        <v>6.11</v>
+        <v>-1.27</v>
       </c>
       <c r="E193" t="n">
-        <v>0.9759326144685569</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>6.9</v>
+        <v>2.14</v>
       </c>
       <c r="B194" t="n">
-        <v>1032.98</v>
+        <v>61.51</v>
       </c>
       <c r="C194" t="n">
-        <v>-6.36</v>
+        <v>15.51</v>
       </c>
       <c r="D194" t="n">
-        <v>-1.27</v>
+        <v>2.79</v>
       </c>
       <c r="E194" t="n">
-        <v>1</v>
+        <v>0.9905598984506285</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>2.14</v>
+        <v>2.36</v>
       </c>
       <c r="B195" t="n">
-        <v>61.51</v>
+        <v>174.63</v>
       </c>
       <c r="C195" t="n">
-        <v>15.51</v>
+        <v>7.73</v>
       </c>
       <c r="D195" t="n">
-        <v>2.79</v>
+        <v>2.67</v>
       </c>
       <c r="E195" t="n">
-        <v>0.9899068821373308</v>
+        <v>0.9978766425399196</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>2.36</v>
+        <v>1.94</v>
       </c>
       <c r="B196" t="n">
-        <v>174.63</v>
+        <v>254.08</v>
       </c>
       <c r="C196" t="n">
-        <v>7.73</v>
+        <v>-0.08</v>
       </c>
       <c r="D196" t="n">
-        <v>2.67</v>
+        <v>-0.78</v>
       </c>
       <c r="E196" t="n">
-        <v>0.9977200416601022</v>
+        <v>0.9221548835320693</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>1.94</v>
+        <v>2.54</v>
       </c>
       <c r="B197" t="n">
-        <v>254.08</v>
+        <v>88.05</v>
       </c>
       <c r="C197" t="n">
-        <v>-0.08</v>
+        <v>4.62</v>
       </c>
       <c r="D197" t="n">
-        <v>-0.78</v>
+        <v>-0.13</v>
       </c>
       <c r="E197" t="n">
-        <v>0.917259863868885</v>
+        <v>0.9976590873962087</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>2.54</v>
+        <v>4.27</v>
       </c>
       <c r="B198" t="n">
-        <v>88.05</v>
+        <v>153.84</v>
       </c>
       <c r="C198" t="n">
-        <v>4.62</v>
+        <v>3.96</v>
       </c>
       <c r="D198" t="n">
-        <v>-0.13</v>
+        <v>0.35</v>
       </c>
       <c r="E198" t="n">
-        <v>0.9974445899824735</v>
+        <v>0.9999999977003058</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>4.27</v>
+        <v>3.6</v>
       </c>
       <c r="B199" t="n">
-        <v>153.84</v>
+        <v>354.55</v>
       </c>
       <c r="C199" t="n">
-        <v>3.96</v>
+        <v>-0.32</v>
       </c>
       <c r="D199" t="n">
-        <v>0.35</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E199" t="n">
-        <v>0.9999999974608693</v>
+        <v>0.9999992386711545</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="B200" t="n">
-        <v>354.55</v>
+        <v>224.27</v>
       </c>
       <c r="C200" t="n">
-        <v>-0.32</v>
+        <v>18.59</v>
       </c>
       <c r="D200" t="n">
-        <v>0.9399999999999999</v>
+        <v>4.39</v>
       </c>
       <c r="E200" t="n">
-        <v>0.9999991527390578</v>
+        <v>0.9941748873996776</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>2.25</v>
+        <v>5.61</v>
       </c>
       <c r="B201" t="n">
-        <v>224.27</v>
+        <v>344.14</v>
       </c>
       <c r="C201" t="n">
-        <v>18.59</v>
+        <v>5.97</v>
       </c>
       <c r="D201" t="n">
-        <v>4.39</v>
+        <v>4.1</v>
       </c>
       <c r="E201" t="n">
-        <v>0.9943520750269698</v>
+        <v>0.9999999999999996</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>5.61</v>
+        <v>3.18</v>
       </c>
       <c r="B202" t="n">
-        <v>344.14</v>
+        <v>22.46</v>
       </c>
       <c r="C202" t="n">
-        <v>5.97</v>
+        <v>-11.2</v>
       </c>
       <c r="D202" t="n">
-        <v>4.1</v>
+        <v>1.56</v>
       </c>
       <c r="E202" t="n">
-        <v>0.9999999999999996</v>
+        <v>0.9999628358978644</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>3.18</v>
+        <v>2.27</v>
       </c>
       <c r="B203" t="n">
-        <v>22.46</v>
+        <v>737.62</v>
       </c>
       <c r="C203" t="n">
-        <v>-11.2</v>
+        <v>0.78</v>
       </c>
       <c r="D203" t="n">
-        <v>1.56</v>
+        <v>1.98</v>
       </c>
       <c r="E203" t="n">
-        <v>0.9999582854735788</v>
+        <v>0.9848316040803125</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>2.27</v>
+        <v>2.69</v>
       </c>
       <c r="B204" t="n">
-        <v>737.62</v>
+        <v>173.51</v>
       </c>
       <c r="C204" t="n">
-        <v>0.78</v>
+        <v>4.72</v>
       </c>
       <c r="D204" t="n">
-        <v>1.98</v>
+        <v>3.98</v>
       </c>
       <c r="E204" t="n">
-        <v>0.9833400615709414</v>
+        <v>0.9996816423360443</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>2.69</v>
+        <v>2.61</v>
       </c>
       <c r="B205" t="n">
-        <v>173.51</v>
+        <v>205.72</v>
       </c>
       <c r="C205" t="n">
-        <v>4.72</v>
+        <v>2.29</v>
       </c>
       <c r="D205" t="n">
-        <v>3.98</v>
+        <v>0.38</v>
       </c>
       <c r="E205" t="n">
-        <v>0.999682106391463</v>
+        <v>0.9989611790031535</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>2.61</v>
+        <v>5.15</v>
       </c>
       <c r="B206" t="n">
-        <v>205.72</v>
+        <v>128.58</v>
       </c>
       <c r="C206" t="n">
-        <v>2.29</v>
+        <v>6.5</v>
       </c>
       <c r="D206" t="n">
-        <v>0.38</v>
+        <v>1.11</v>
       </c>
       <c r="E206" t="n">
-        <v>0.9988517584257341</v>
+        <v>0.9999999999998512</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>5.15</v>
+        <v>5.6</v>
       </c>
       <c r="B207" t="n">
-        <v>128.58</v>
+        <v>411.11</v>
       </c>
       <c r="C207" t="n">
-        <v>6.5</v>
+        <v>6.92</v>
       </c>
       <c r="D207" t="n">
-        <v>1.11</v>
+        <v>-0.48</v>
       </c>
       <c r="E207" t="n">
-        <v>0.9999999999998348</v>
+        <v>0.9999999999999982</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>5.6</v>
+        <v>3.33</v>
       </c>
       <c r="B208" t="n">
-        <v>411.11</v>
+        <v>236.13</v>
       </c>
       <c r="C208" t="n">
-        <v>6.92</v>
+        <v>3.04</v>
       </c>
       <c r="D208" t="n">
-        <v>-0.48</v>
+        <v>0.11</v>
       </c>
       <c r="E208" t="n">
-        <v>0.9999999999999982</v>
+        <v>0.9999915362268811</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>3.33</v>
+        <v>1.92</v>
       </c>
       <c r="B209" t="n">
-        <v>236.13</v>
+        <v>176.94</v>
       </c>
       <c r="C209" t="n">
-        <v>3.04</v>
+        <v>6.49</v>
       </c>
       <c r="D209" t="n">
-        <v>0.11</v>
+        <v>-0.21</v>
       </c>
       <c r="E209" t="n">
-        <v>0.9999906963701485</v>
+        <v>0.9457174794359215</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>1.92</v>
+        <v>3.39</v>
       </c>
       <c r="B210" t="n">
-        <v>176.94</v>
+        <v>59.43</v>
       </c>
       <c r="C210" t="n">
-        <v>6.49</v>
+        <v>24.84</v>
       </c>
       <c r="D210" t="n">
-        <v>-0.21</v>
+        <v>1.49</v>
       </c>
       <c r="E210" t="n">
-        <v>0.9411881026082541</v>
+        <v>0.9999927988059608</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>3.39</v>
+        <v>2.51</v>
       </c>
       <c r="B211" t="n">
-        <v>59.43</v>
+        <v>247.95</v>
       </c>
       <c r="C211" t="n">
-        <v>24.84</v>
+        <v>-1.1</v>
       </c>
       <c r="D211" t="n">
-        <v>1.49</v>
+        <v>2.61</v>
       </c>
       <c r="E211" t="n">
-        <v>0.9999919649687652</v>
+        <v>0.9989850894266812</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>2.51</v>
+        <v>5.26</v>
       </c>
       <c r="B212" t="n">
-        <v>247.95</v>
+        <v>117.5</v>
       </c>
       <c r="C212" t="n">
-        <v>-1.1</v>
+        <v>42.94</v>
       </c>
       <c r="D212" t="n">
-        <v>2.61</v>
+        <v>2.89</v>
       </c>
       <c r="E212" t="n">
-        <v>0.9989034629016381</v>
+        <v>0.999999999999412</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>5.26</v>
+        <v>4.68</v>
       </c>
       <c r="B213" t="n">
-        <v>117.5</v>
+        <v>256.97</v>
       </c>
       <c r="C213" t="n">
-        <v>42.94</v>
+        <v>-5.2</v>
       </c>
       <c r="D213" t="n">
-        <v>2.89</v>
+        <v>0.74</v>
       </c>
       <c r="E213" t="n">
-        <v>0.9999999999993499</v>
+        <v>0.9999999999602625</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>4.68</v>
+        <v>2.36</v>
       </c>
       <c r="B214" t="n">
-        <v>256.97</v>
+        <v>164.08</v>
       </c>
       <c r="C214" t="n">
-        <v>-5.2</v>
+        <v>-0.46</v>
       </c>
       <c r="D214" t="n">
-        <v>0.74</v>
+        <v>2.73</v>
       </c>
       <c r="E214" t="n">
-        <v>0.9999999999556333</v>
+        <v>0.9975963294482781</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>2.36</v>
+        <v>2.76</v>
       </c>
       <c r="B215" t="n">
-        <v>164.08</v>
+        <v>211.34</v>
       </c>
       <c r="C215" t="n">
-        <v>-0.46</v>
+        <v>13.13</v>
       </c>
       <c r="D215" t="n">
-        <v>2.73</v>
+        <v>1.97</v>
       </c>
       <c r="E215" t="n">
-        <v>0.9974167576846419</v>
+        <v>0.9997671809266683</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>2.76</v>
+        <v>6.44</v>
       </c>
       <c r="B216" t="n">
-        <v>211.34</v>
+        <v>262.66</v>
       </c>
       <c r="C216" t="n">
-        <v>13.13</v>
+        <v>2.77</v>
       </c>
       <c r="D216" t="n">
-        <v>1.97</v>
+        <v>4.14</v>
       </c>
       <c r="E216" t="n">
-        <v>0.9997443353950634</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>6.44</v>
+        <v>4.24</v>
       </c>
       <c r="B217" t="n">
-        <v>262.66</v>
+        <v>85.20999999999999</v>
       </c>
       <c r="C217" t="n">
-        <v>2.77</v>
+        <v>10.94</v>
       </c>
       <c r="D217" t="n">
-        <v>4.14</v>
+        <v>0.74</v>
       </c>
       <c r="E217" t="n">
-        <v>1</v>
+        <v>0.999999997153683</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>4.24</v>
+        <v>3.81</v>
       </c>
       <c r="B218" t="n">
-        <v>85.20999999999999</v>
+        <v>95.95999999999999</v>
       </c>
       <c r="C218" t="n">
-        <v>10.94</v>
+        <v>8.02</v>
       </c>
       <c r="D218" t="n">
-        <v>0.74</v>
+        <v>2.71</v>
       </c>
       <c r="E218" t="n">
-        <v>0.9999999968454394</v>
+        <v>0.9999999210817632</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>3.81</v>
+        <v>3.54</v>
       </c>
       <c r="B219" t="n">
-        <v>95.95999999999999</v>
+        <v>80.44</v>
       </c>
       <c r="C219" t="n">
-        <v>8.02</v>
+        <v>1.6</v>
       </c>
       <c r="D219" t="n">
-        <v>2.71</v>
+        <v>1.05</v>
       </c>
       <c r="E219" t="n">
-        <v>0.9999999153841386</v>
+        <v>0.9999987648844215</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>3.54</v>
+        <v>2.13</v>
       </c>
       <c r="B220" t="n">
-        <v>80.44</v>
+        <v>451.62</v>
       </c>
       <c r="C220" t="n">
-        <v>1.6</v>
+        <v>4.54</v>
       </c>
       <c r="D220" t="n">
-        <v>1.05</v>
+        <v>2</v>
       </c>
       <c r="E220" t="n">
-        <v>0.9999986267179511</v>
+        <v>0.9902297161647012</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>2.13</v>
+        <v>4.31</v>
       </c>
       <c r="B221" t="n">
-        <v>451.62</v>
+        <v>162.16</v>
       </c>
       <c r="C221" t="n">
-        <v>4.54</v>
+        <v>19.09</v>
       </c>
       <c r="D221" t="n">
-        <v>2</v>
+        <v>1.21</v>
       </c>
       <c r="E221" t="n">
-        <v>0.9892855555025687</v>
+        <v>0.9999999985396171</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>4.31</v>
+        <v>3.26</v>
       </c>
       <c r="B222" t="n">
-        <v>162.16</v>
+        <v>312.05</v>
       </c>
       <c r="C222" t="n">
-        <v>19.09</v>
+        <v>-3.59</v>
       </c>
       <c r="D222" t="n">
-        <v>1.21</v>
+        <v>1.31</v>
       </c>
       <c r="E222" t="n">
-        <v>0.9999999983752588</v>
+        <v>0.9999895970690077</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>3.26</v>
+        <v>2.34</v>
       </c>
       <c r="B223" t="n">
-        <v>312.05</v>
+        <v>168.77</v>
       </c>
       <c r="C223" t="n">
-        <v>-3.59</v>
+        <v>7.16</v>
       </c>
       <c r="D223" t="n">
-        <v>1.31</v>
+        <v>0.4</v>
       </c>
       <c r="E223" t="n">
-        <v>0.9999884012951716</v>
+        <v>0.9952008906226675</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>2.34</v>
+        <v>1.96</v>
       </c>
       <c r="B224" t="n">
-        <v>168.77</v>
+        <v>304.31</v>
       </c>
       <c r="C224" t="n">
-        <v>7.16</v>
+        <v>5.09</v>
       </c>
       <c r="D224" t="n">
-        <v>0.4</v>
+        <v>2.27</v>
       </c>
       <c r="E224" t="n">
-        <v>0.9947042546960841</v>
+        <v>0.9830035439844442</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>1.96</v>
+        <v>3.36</v>
       </c>
       <c r="B225" t="n">
-        <v>304.31</v>
+        <v>671.9299999999999</v>
       </c>
       <c r="C225" t="n">
-        <v>5.09</v>
+        <v>-0.2</v>
       </c>
       <c r="D225" t="n">
-        <v>2.27</v>
+        <v>-1.18</v>
       </c>
       <c r="E225" t="n">
-        <v>0.9815081344013133</v>
+        <v>0.9999511037526724</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>3.36</v>
+        <v>2.96</v>
       </c>
       <c r="B226" t="n">
-        <v>671.9299999999999</v>
+        <v>251.89</v>
       </c>
       <c r="C226" t="n">
-        <v>-0.2</v>
+        <v>7.52</v>
       </c>
       <c r="D226" t="n">
-        <v>-1.18</v>
+        <v>2.12</v>
       </c>
       <c r="E226" t="n">
-        <v>0.9999487855253348</v>
+        <v>0.9999457128357923</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>2.96</v>
+        <v>5.8</v>
       </c>
       <c r="B227" t="n">
-        <v>251.89</v>
+        <v>131.41</v>
       </c>
       <c r="C227" t="n">
-        <v>7.52</v>
+        <v>-29.24</v>
       </c>
       <c r="D227" t="n">
-        <v>2.12</v>
+        <v>1.18</v>
       </c>
       <c r="E227" t="n">
-        <v>0.9999406251672881</v>
+        <v>0.9999999999999982</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>5.8</v>
+        <v>5.91</v>
       </c>
       <c r="B228" t="n">
-        <v>131.41</v>
+        <v>85.06</v>
       </c>
       <c r="C228" t="n">
-        <v>-29.24</v>
+        <v>2.17</v>
       </c>
       <c r="D228" t="n">
-        <v>1.18</v>
+        <v>0.35</v>
       </c>
       <c r="E228" t="n">
-        <v>0.9999999999999982</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>5.91</v>
+        <v>3.35</v>
       </c>
       <c r="B229" t="n">
-        <v>85.06</v>
+        <v>104.46</v>
       </c>
       <c r="C229" t="n">
-        <v>2.17</v>
+        <v>19.4</v>
       </c>
       <c r="D229" t="n">
-        <v>0.35</v>
+        <v>0.32</v>
       </c>
       <c r="E229" t="n">
-        <v>1</v>
+        <v>0.9999898671123044</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>3.35</v>
+        <v>3.66</v>
       </c>
       <c r="B230" t="n">
-        <v>104.46</v>
+        <v>210.32</v>
       </c>
       <c r="C230" t="n">
-        <v>19.4</v>
+        <v>17.53</v>
       </c>
       <c r="D230" t="n">
-        <v>0.32</v>
+        <v>11.41</v>
       </c>
       <c r="E230" t="n">
-        <v>0.9999887915348318</v>
+        <v>0.9997892794393461</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>3.66</v>
+        <v>5.75</v>
       </c>
       <c r="B231" t="n">
-        <v>210.32</v>
+        <v>232.08</v>
       </c>
       <c r="C231" t="n">
-        <v>17.53</v>
+        <v>3.17</v>
       </c>
       <c r="D231" t="n">
-        <v>11.41</v>
+        <v>3.26</v>
       </c>
       <c r="E231" t="n">
-        <v>0.9999373824485353</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>5.75</v>
+        <v>4.21</v>
       </c>
       <c r="B232" t="n">
-        <v>232.08</v>
+        <v>225.75</v>
       </c>
       <c r="C232" t="n">
-        <v>3.17</v>
+        <v>4.74</v>
       </c>
       <c r="D232" t="n">
-        <v>3.26</v>
+        <v>6.24</v>
       </c>
       <c r="E232" t="n">
-        <v>1</v>
+        <v>0.9999999955091061</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>4.21</v>
+        <v>4.19</v>
       </c>
       <c r="B233" t="n">
-        <v>225.75</v>
+        <v>295.35</v>
       </c>
       <c r="C233" t="n">
-        <v>4.74</v>
+        <v>19.35</v>
       </c>
       <c r="D233" t="n">
-        <v>6.24</v>
+        <v>3.38</v>
       </c>
       <c r="E233" t="n">
-        <v>0.9999999964220043</v>
+        <v>0.9999999968220288</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>4.19</v>
+        <v>3.01</v>
       </c>
       <c r="B234" t="n">
-        <v>295.35</v>
+        <v>150.33</v>
       </c>
       <c r="C234" t="n">
-        <v>19.35</v>
+        <v>3.71</v>
       </c>
       <c r="D234" t="n">
-        <v>3.38</v>
+        <v>1.72</v>
       </c>
       <c r="E234" t="n">
-        <v>0.9999999966926199</v>
+        <v>0.9999544219821711</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>3.01</v>
+        <v>3.26</v>
       </c>
       <c r="B235" t="n">
-        <v>150.33</v>
+        <v>168.65</v>
       </c>
       <c r="C235" t="n">
-        <v>3.71</v>
+        <v>20.72</v>
       </c>
       <c r="D235" t="n">
-        <v>1.72</v>
+        <v>2.37</v>
       </c>
       <c r="E235" t="n">
-        <v>0.9999496630272104</v>
+        <v>0.999990142804009</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>3.26</v>
+        <v>5.58</v>
       </c>
       <c r="B236" t="n">
-        <v>168.65</v>
+        <v>176.48</v>
       </c>
       <c r="C236" t="n">
-        <v>20.72</v>
+        <v>-1.69</v>
       </c>
       <c r="D236" t="n">
-        <v>2.37</v>
+        <v>1.79</v>
       </c>
       <c r="E236" t="n">
-        <v>0.9999892524659146</v>
+        <v>0.9999999999999991</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>5.58</v>
+        <v>6.12</v>
       </c>
       <c r="B237" t="n">
-        <v>176.48</v>
+        <v>166.07</v>
       </c>
       <c r="C237" t="n">
-        <v>-1.69</v>
+        <v>2.35</v>
       </c>
       <c r="D237" t="n">
-        <v>1.79</v>
+        <v>0.48</v>
       </c>
       <c r="E237" t="n">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>6.12</v>
+        <v>3.02</v>
       </c>
       <c r="B238" t="n">
-        <v>166.07</v>
+        <v>827.49</v>
       </c>
       <c r="C238" t="n">
-        <v>2.35</v>
+        <v>1.42</v>
       </c>
       <c r="D238" t="n">
-        <v>0.48</v>
+        <v>2.78</v>
       </c>
       <c r="E238" t="n">
-        <v>1</v>
+        <v>0.999774998336925</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>3.02</v>
+        <v>4.07</v>
       </c>
       <c r="B239" t="n">
-        <v>827.49</v>
+        <v>190.87</v>
       </c>
       <c r="C239" t="n">
-        <v>1.42</v>
+        <v>5.2</v>
       </c>
       <c r="D239" t="n">
-        <v>2.78</v>
+        <v>4.41</v>
       </c>
       <c r="E239" t="n">
-        <v>0.9997590302575529</v>
+        <v>0.9999999920929876</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>4.07</v>
+        <v>3.21</v>
       </c>
       <c r="B240" t="n">
-        <v>190.87</v>
+        <v>152.99</v>
       </c>
       <c r="C240" t="n">
-        <v>5.2</v>
+        <v>54.74</v>
       </c>
       <c r="D240" t="n">
-        <v>4.41</v>
+        <v>2.4</v>
       </c>
       <c r="E240" t="n">
-        <v>0.9999999923643172</v>
+        <v>0.9980933246665481</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>3.21</v>
+        <v>2.88</v>
       </c>
       <c r="B241" t="n">
-        <v>152.99</v>
+        <v>252.88</v>
       </c>
       <c r="C241" t="n">
-        <v>54.74</v>
+        <v>2.01</v>
       </c>
       <c r="D241" t="n">
-        <v>2.4</v>
+        <v>2.94</v>
       </c>
       <c r="E241" t="n">
-        <v>0.9977803379931098</v>
+        <v>0.9999110849330617</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>2.88</v>
+        <v>4.88</v>
       </c>
       <c r="B242" t="n">
-        <v>252.88</v>
+        <v>152.78</v>
       </c>
       <c r="C242" t="n">
-        <v>2.01</v>
+        <v>5.03</v>
       </c>
       <c r="D242" t="n">
-        <v>2.94</v>
+        <v>1.27</v>
       </c>
       <c r="E242" t="n">
-        <v>0.9999054528101891</v>
+        <v>0.9999999999971592</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>4.88</v>
+        <v>4.93</v>
       </c>
       <c r="B243" t="n">
-        <v>152.78</v>
+        <v>100.79</v>
       </c>
       <c r="C243" t="n">
-        <v>5.03</v>
+        <v>-5.33</v>
       </c>
       <c r="D243" t="n">
-        <v>1.27</v>
+        <v>2.24</v>
       </c>
       <c r="E243" t="n">
-        <v>0.9999999999968483</v>
+        <v>0.9999999999981051</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>4.93</v>
+        <v>2.26</v>
       </c>
       <c r="B244" t="n">
-        <v>100.79</v>
+        <v>213.11</v>
       </c>
       <c r="C244" t="n">
-        <v>-5.33</v>
+        <v>7.11</v>
       </c>
       <c r="D244" t="n">
-        <v>2.24</v>
+        <v>1.09</v>
       </c>
       <c r="E244" t="n">
-        <v>0.9999999999979186</v>
+        <v>0.9947646525731589</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>2.26</v>
+        <v>2.63</v>
       </c>
       <c r="B245" t="n">
-        <v>213.11</v>
+        <v>166.42</v>
       </c>
       <c r="C245" t="n">
-        <v>7.11</v>
+        <v>8.33</v>
       </c>
       <c r="D245" t="n">
-        <v>1.09</v>
+        <v>2.44</v>
       </c>
       <c r="E245" t="n">
-        <v>0.9941944588782741</v>
+        <v>0.9995442845710492</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>2.63</v>
+        <v>4.25</v>
       </c>
       <c r="B246" t="n">
-        <v>166.42</v>
+        <v>345.96</v>
       </c>
       <c r="C246" t="n">
-        <v>8.33</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="D246" t="n">
-        <v>2.44</v>
+        <v>3.74</v>
       </c>
       <c r="E246" t="n">
-        <v>0.9995064418222966</v>
+        <v>0.9999999986487542</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>4.25</v>
+        <v>3.77</v>
       </c>
       <c r="B247" t="n">
-        <v>345.96</v>
+        <v>97</v>
       </c>
       <c r="C247" t="n">
-        <v>9.279999999999999</v>
+        <v>5.92</v>
       </c>
       <c r="D247" t="n">
-        <v>3.74</v>
+        <v>2.85</v>
       </c>
       <c r="E247" t="n">
-        <v>0.9999999986293555</v>
+        <v>0.9999998901480358</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>3.77</v>
+        <v>2.16</v>
       </c>
       <c r="B248" t="n">
-        <v>97</v>
+        <v>239.95</v>
       </c>
       <c r="C248" t="n">
-        <v>5.92</v>
+        <v>4.77</v>
       </c>
       <c r="D248" t="n">
-        <v>2.85</v>
+        <v>1.93</v>
       </c>
       <c r="E248" t="n">
-        <v>0.9999998828756997</v>
+        <v>0.9932102419737616</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>2.16</v>
+        <v>2.69</v>
       </c>
       <c r="B249" t="n">
-        <v>239.95</v>
+        <v>153.72</v>
       </c>
       <c r="C249" t="n">
-        <v>4.77</v>
+        <v>24.16</v>
       </c>
       <c r="D249" t="n">
-        <v>1.93</v>
+        <v>2.21</v>
       </c>
       <c r="E249" t="n">
-        <v>0.9925398741519031</v>
+        <v>0.9993392604781757</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>2.69</v>
+        <v>4.47</v>
       </c>
       <c r="B250" t="n">
-        <v>153.72</v>
+        <v>174.22</v>
       </c>
       <c r="C250" t="n">
-        <v>24.16</v>
+        <v>8.23</v>
       </c>
       <c r="D250" t="n">
-        <v>2.21</v>
+        <v>1.92</v>
       </c>
       <c r="E250" t="n">
-        <v>0.9992738317012444</v>
+        <v>0.9999999998307771</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>4.47</v>
+        <v>3.52</v>
       </c>
       <c r="B251" t="n">
-        <v>174.22</v>
+        <v>243.53</v>
       </c>
       <c r="C251" t="n">
-        <v>8.23</v>
+        <v>3.92</v>
       </c>
       <c r="D251" t="n">
-        <v>1.92</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E251" t="n">
-        <v>0.999999999814031</v>
+        <v>0.9999986111760782</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>3.52</v>
+        <v>4.12</v>
       </c>
       <c r="B252" t="n">
-        <v>243.53</v>
+        <v>234.22</v>
       </c>
       <c r="C252" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="D252" t="n">
         <v>3.92</v>
       </c>
-      <c r="D252" t="n">
-        <v>0.6899999999999999</v>
-      </c>
       <c r="E252" t="n">
-        <v>0.9999984599632322</v>
+        <v>0.9999999954182499</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>4.12</v>
+        <v>3.94</v>
       </c>
       <c r="B253" t="n">
-        <v>234.22</v>
+        <v>326.5</v>
       </c>
       <c r="C253" t="n">
-        <v>2.93</v>
+        <v>0.86</v>
       </c>
       <c r="D253" t="n">
-        <v>3.92</v>
+        <v>2.14</v>
       </c>
       <c r="E253" t="n">
-        <v>0.999999995402189</v>
+        <v>0.9999999732268526</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>3.94</v>
+        <v>3.25</v>
       </c>
       <c r="B254" t="n">
-        <v>326.5</v>
+        <v>165.28</v>
       </c>
       <c r="C254" t="n">
-        <v>0.86</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="D254" t="n">
-        <v>2.14</v>
+        <v>1.54</v>
       </c>
       <c r="E254" t="n">
-        <v>0.9999999706621914</v>
+        <v>0.9999916582199371</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>3.25</v>
+        <v>4.41</v>
       </c>
       <c r="B255" t="n">
-        <v>165.28</v>
+        <v>158.56</v>
       </c>
       <c r="C255" t="n">
-        <v>9.279999999999999</v>
+        <v>1.54</v>
       </c>
       <c r="D255" t="n">
-        <v>1.54</v>
+        <v>5.22</v>
       </c>
       <c r="E255" t="n">
-        <v>0.9999907740352001</v>
+        <v>0.9999999995704769</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>4.41</v>
+        <v>2.61</v>
       </c>
       <c r="B256" t="n">
-        <v>158.56</v>
+        <v>229.77</v>
       </c>
       <c r="C256" t="n">
-        <v>1.54</v>
+        <v>12.3</v>
       </c>
       <c r="D256" t="n">
-        <v>5.22</v>
+        <v>4.3</v>
       </c>
       <c r="E256" t="n">
-        <v>0.999999999614595</v>
+        <v>0.9994290144332622</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>2.61</v>
+        <v>4.71</v>
       </c>
       <c r="B257" t="n">
-        <v>229.77</v>
+        <v>769.8200000000001</v>
       </c>
       <c r="C257" t="n">
-        <v>12.3</v>
+        <v>6.64</v>
       </c>
       <c r="D257" t="n">
-        <v>4.3</v>
+        <v>3.51</v>
       </c>
       <c r="E257" t="n">
-        <v>0.9994438651731055</v>
+        <v>0.9999999999458504</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>4.71</v>
+        <v>2.35</v>
       </c>
       <c r="B258" t="n">
-        <v>769.8200000000001</v>
+        <v>199.68</v>
       </c>
       <c r="C258" t="n">
-        <v>6.64</v>
+        <v>1.17</v>
       </c>
       <c r="D258" t="n">
-        <v>3.51</v>
+        <v>2.27</v>
       </c>
       <c r="E258" t="n">
-        <v>0.9999999999442624</v>
+        <v>0.9975031295469928</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>2.35</v>
+        <v>3.04</v>
       </c>
       <c r="B259" t="n">
-        <v>199.68</v>
+        <v>206.6</v>
       </c>
       <c r="C259" t="n">
-        <v>1.17</v>
+        <v>6.72</v>
       </c>
       <c r="D259" t="n">
-        <v>2.27</v>
+        <v>4.42</v>
       </c>
       <c r="E259" t="n">
-        <v>0.9972750227593764</v>
+        <v>0.999966970205528</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>3.04</v>
+        <v>5.85</v>
       </c>
       <c r="B260" t="n">
-        <v>206.6</v>
+        <v>155.96</v>
       </c>
       <c r="C260" t="n">
-        <v>6.72</v>
+        <v>8.66</v>
       </c>
       <c r="D260" t="n">
-        <v>4.42</v>
+        <v>1.65</v>
       </c>
       <c r="E260" t="n">
-        <v>0.9999681422691484</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>5.85</v>
+        <v>4.21</v>
       </c>
       <c r="B261" t="n">
-        <v>155.96</v>
+        <v>180.59</v>
       </c>
       <c r="C261" t="n">
-        <v>8.66</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="D261" t="n">
-        <v>1.65</v>
+        <v>2.71</v>
       </c>
       <c r="E261" t="n">
-        <v>1</v>
+        <v>0.9999999981086911</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>4.21</v>
+        <v>3.71</v>
       </c>
       <c r="B262" t="n">
-        <v>180.59</v>
+        <v>126.21</v>
       </c>
       <c r="C262" t="n">
-        <v>8.609999999999999</v>
+        <v>41.36</v>
       </c>
       <c r="D262" t="n">
-        <v>2.71</v>
+        <v>3.94</v>
       </c>
       <c r="E262" t="n">
-        <v>0.9999999979723464</v>
+        <v>0.9999970658518681</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>3.71</v>
+        <v>2.26</v>
       </c>
       <c r="B263" t="n">
-        <v>126.21</v>
+        <v>1027.31</v>
       </c>
       <c r="C263" t="n">
-        <v>41.36</v>
+        <v>4.33</v>
       </c>
       <c r="D263" t="n">
-        <v>3.94</v>
+        <v>0.53</v>
       </c>
       <c r="E263" t="n">
-        <v>0.9999969585080383</v>
+        <v>0.8352109163940181</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>2.26</v>
+        <v>3.06</v>
       </c>
       <c r="B264" t="n">
-        <v>1027.31</v>
+        <v>130.28</v>
       </c>
       <c r="C264" t="n">
-        <v>4.33</v>
+        <v>-0.02</v>
       </c>
       <c r="D264" t="n">
-        <v>0.53</v>
+        <v>0.99</v>
       </c>
       <c r="E264" t="n">
-        <v>0.820821830217967</v>
+        <v>0.999953887924677</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>3.06</v>
+        <v>4.08</v>
       </c>
       <c r="B265" t="n">
-        <v>130.28</v>
+        <v>221.34</v>
       </c>
       <c r="C265" t="n">
-        <v>-0.02</v>
+        <v>-9.859999999999999</v>
       </c>
       <c r="D265" t="n">
-        <v>0.99</v>
+        <v>-0.55</v>
       </c>
       <c r="E265" t="n">
-        <v>0.9999486824408698</v>
+        <v>0.9999999568900027</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>4.08</v>
+        <v>3.6</v>
       </c>
       <c r="B266" t="n">
-        <v>221.34</v>
+        <v>165.78</v>
       </c>
       <c r="C266" t="n">
-        <v>-9.859999999999999</v>
+        <v>3.12</v>
       </c>
       <c r="D266" t="n">
-        <v>-0.55</v>
+        <v>2.01</v>
       </c>
       <c r="E266" t="n">
-        <v>0.9999999530273922</v>
+        <v>0.9999995164061303</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>3.6</v>
+        <v>2.93</v>
       </c>
       <c r="B267" t="n">
-        <v>165.78</v>
+        <v>445.27</v>
       </c>
       <c r="C267" t="n">
-        <v>3.12</v>
+        <v>3.07</v>
       </c>
       <c r="D267" t="n">
-        <v>2.01</v>
+        <v>2.17</v>
       </c>
       <c r="E267" t="n">
-        <v>0.9999994689083584</v>
+        <v>0.9999157501983756</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>2.93</v>
+        <v>5.01</v>
       </c>
       <c r="B268" t="n">
-        <v>445.27</v>
+        <v>155.95</v>
       </c>
       <c r="C268" t="n">
-        <v>3.07</v>
+        <v>-0.37</v>
       </c>
       <c r="D268" t="n">
-        <v>2.17</v>
+        <v>-0.54</v>
       </c>
       <c r="E268" t="n">
-        <v>0.9999078693736779</v>
+        <v>0.9999999999980291</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>5.01</v>
+        <v>4.37</v>
       </c>
       <c r="B269" t="n">
-        <v>155.95</v>
+        <v>236.17</v>
       </c>
       <c r="C269" t="n">
-        <v>-0.37</v>
+        <v>-3.54</v>
       </c>
       <c r="D269" t="n">
-        <v>-0.54</v>
+        <v>2.98</v>
       </c>
       <c r="E269" t="n">
-        <v>0.9999999999978719</v>
+        <v>0.9999999995092392</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>4.37</v>
+        <v>2.38</v>
       </c>
       <c r="B270" t="n">
-        <v>236.17</v>
+        <v>280.04</v>
       </c>
       <c r="C270" t="n">
-        <v>-3.54</v>
+        <v>-5.91</v>
       </c>
       <c r="D270" t="n">
-        <v>2.98</v>
+        <v>1.61</v>
       </c>
       <c r="E270" t="n">
-        <v>0.9999999994770552</v>
+        <v>0.9966993865456808</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>2.38</v>
+        <v>3.83</v>
       </c>
       <c r="B271" t="n">
-        <v>280.04</v>
+        <v>279.49</v>
       </c>
       <c r="C271" t="n">
-        <v>-5.91</v>
+        <v>-1.54</v>
       </c>
       <c r="D271" t="n">
-        <v>1.61</v>
+        <v>2.72</v>
       </c>
       <c r="E271" t="n">
-        <v>0.9963242070716627</v>
+        <v>0.9999999314842266</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>3.83</v>
+        <v>2.5</v>
       </c>
       <c r="B272" t="n">
-        <v>279.49</v>
+        <v>141.42</v>
       </c>
       <c r="C272" t="n">
-        <v>-1.54</v>
+        <v>3.07</v>
       </c>
       <c r="D272" t="n">
-        <v>2.72</v>
+        <v>0.5</v>
       </c>
       <c r="E272" t="n">
-        <v>0.9999999262685795</v>
+        <v>0.9980443858905652</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>2.5</v>
+        <v>4.82</v>
       </c>
       <c r="B273" t="n">
-        <v>141.42</v>
+        <v>250.6</v>
       </c>
       <c r="C273" t="n">
-        <v>3.07</v>
+        <v>12.35</v>
       </c>
       <c r="D273" t="n">
-        <v>0.5</v>
+        <v>3.73</v>
       </c>
       <c r="E273" t="n">
-        <v>0.9978355112683733</v>
+        <v>0.9999999999959477</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>4.82</v>
+        <v>6.95</v>
       </c>
       <c r="B274" t="n">
-        <v>250.6</v>
+        <v>109.09</v>
       </c>
       <c r="C274" t="n">
-        <v>12.35</v>
+        <v>42.86</v>
       </c>
       <c r="D274" t="n">
-        <v>3.73</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="E274" t="n">
-        <v>0.9999999999958855</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>6.95</v>
+        <v>1.87</v>
       </c>
       <c r="B275" t="n">
-        <v>109.09</v>
+        <v>297.08</v>
       </c>
       <c r="C275" t="n">
-        <v>42.86</v>
+        <v>-4.73</v>
       </c>
       <c r="D275" t="n">
-        <v>0.5600000000000001</v>
+        <v>-0.67</v>
       </c>
       <c r="E275" t="n">
-        <v>1</v>
+        <v>0.8830207098947761</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>1.87</v>
+        <v>4.13</v>
       </c>
       <c r="B276" t="n">
-        <v>297.08</v>
+        <v>249.01</v>
       </c>
       <c r="C276" t="n">
-        <v>-4.73</v>
+        <v>-0.22</v>
       </c>
       <c r="D276" t="n">
-        <v>-0.67</v>
+        <v>2.33</v>
       </c>
       <c r="E276" t="n">
-        <v>0.875058757187039</v>
+        <v>0.999999995437105</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>4.13</v>
+        <v>2.25</v>
       </c>
       <c r="B277" t="n">
-        <v>249.01</v>
+        <v>931.16</v>
       </c>
       <c r="C277" t="n">
-        <v>-0.22</v>
+        <v>0.36</v>
       </c>
       <c r="D277" t="n">
-        <v>2.33</v>
+        <v>2.21</v>
       </c>
       <c r="E277" t="n">
-        <v>0.9999999950241394</v>
+        <v>0.9449011943915521</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>2.25</v>
+        <v>6.23</v>
       </c>
       <c r="B278" t="n">
-        <v>931.16</v>
+        <v>111.19</v>
       </c>
       <c r="C278" t="n">
-        <v>0.36</v>
+        <v>9.93</v>
       </c>
       <c r="D278" t="n">
-        <v>2.21</v>
+        <v>2.97</v>
       </c>
       <c r="E278" t="n">
-        <v>0.9400506826825175</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>6.23</v>
+        <v>3.67</v>
       </c>
       <c r="B279" t="n">
-        <v>111.19</v>
+        <v>137.57</v>
       </c>
       <c r="C279" t="n">
-        <v>9.93</v>
+        <v>16.91</v>
       </c>
       <c r="D279" t="n">
-        <v>2.97</v>
+        <v>1.9</v>
       </c>
       <c r="E279" t="n">
-        <v>1</v>
+        <v>0.9999996480084714</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>3.67</v>
+        <v>3.92</v>
       </c>
       <c r="B280" t="n">
-        <v>137.57</v>
+        <v>170.19</v>
       </c>
       <c r="C280" t="n">
-        <v>16.91</v>
+        <v>15.63</v>
       </c>
       <c r="D280" t="n">
-        <v>1.9</v>
+        <v>4.85</v>
       </c>
       <c r="E280" t="n">
-        <v>0.999999612287411</v>
+        <v>0.9999999579473795</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>3.92</v>
+        <v>4.5</v>
       </c>
       <c r="B281" t="n">
-        <v>170.19</v>
+        <v>321.16</v>
       </c>
       <c r="C281" t="n">
-        <v>15.63</v>
+        <v>10.37</v>
       </c>
       <c r="D281" t="n">
-        <v>4.85</v>
+        <v>2.14</v>
       </c>
       <c r="E281" t="n">
-        <v>0.9999999609086</v>
+        <v>0.9999999998780309</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>4.5</v>
+        <v>1.82</v>
       </c>
       <c r="B282" t="n">
-        <v>321.16</v>
+        <v>916.3200000000001</v>
       </c>
       <c r="C282" t="n">
-        <v>10.37</v>
+        <v>-4.31</v>
       </c>
       <c r="D282" t="n">
-        <v>2.14</v>
+        <v>0.54</v>
       </c>
       <c r="E282" t="n">
-        <v>0.9999999998666911</v>
+        <v>0.5259065117758194</v>
       </c>
     </row>
     <row r="283">
@@ -5239,7 +5239,7 @@
         <v>1.69</v>
       </c>
       <c r="E283" t="n">
-        <v>0.9973714411522615</v>
+        <v>0.9976385578284177</v>
       </c>
     </row>
     <row r="284">
@@ -5256,7 +5256,7 @@
         <v>1.4</v>
       </c>
       <c r="E284" t="n">
-        <v>0.9990601374276233</v>
+        <v>0.9991531218893561</v>
       </c>
     </row>
     <row r="285">
@@ -5273,7 +5273,7 @@
         <v>2.26</v>
       </c>
       <c r="E285" t="n">
-        <v>0.9999449455622189</v>
+        <v>0.9999495017647752</v>
       </c>
     </row>
     <row r="286">
@@ -5290,7 +5290,7 @@
         <v>1.76</v>
       </c>
       <c r="E286" t="n">
-        <v>0.9999992620003432</v>
+        <v>0.999999333910212</v>
       </c>
     </row>
     <row r="287">
@@ -5307,7 +5307,7 @@
         <v>0.68</v>
       </c>
       <c r="E287" t="n">
-        <v>0.9999999999999858</v>
+        <v>0.9999999999999876</v>
       </c>
     </row>
     <row r="288">
@@ -5324,7 +5324,7 @@
         <v>0.82</v>
       </c>
       <c r="E288" t="n">
-        <v>0.9996377045487561</v>
+        <v>0.9996746002509509</v>
       </c>
     </row>
     <row r="289">
@@ -5358,7 +5358,7 @@
         <v>2.32</v>
       </c>
       <c r="E290" t="n">
-        <v>0.999787726452118</v>
+        <v>0.9998058633652833</v>
       </c>
     </row>
     <row r="291">
@@ -5375,7 +5375,7 @@
         <v>2.46</v>
       </c>
       <c r="E291" t="n">
-        <v>0.9478540757208292</v>
+        <v>0.9516361726268799</v>
       </c>
     </row>
     <row r="292">
@@ -5392,7 +5392,7 @@
         <v>6.47</v>
       </c>
       <c r="E292" t="n">
-        <v>0.9999999400315538</v>
+        <v>0.9999999232846551</v>
       </c>
     </row>
     <row r="293">
@@ -5409,7 +5409,7 @@
         <v>3.82</v>
       </c>
       <c r="E293" t="n">
-        <v>0.9999971468438573</v>
+        <v>0.9999972217529198</v>
       </c>
     </row>
     <row r="294">
@@ -5426,7 +5426,7 @@
         <v>0.77</v>
       </c>
       <c r="E294" t="n">
-        <v>0.9996668117018814</v>
+        <v>0.9997042487439136</v>
       </c>
     </row>
     <row r="295">
@@ -5443,7 +5443,7 @@
         <v>0.47</v>
       </c>
       <c r="E295" t="n">
-        <v>0.9988357778842534</v>
+        <v>0.9989462968755041</v>
       </c>
     </row>
     <row r="296">
@@ -5460,7 +5460,7 @@
         <v>1.94</v>
       </c>
       <c r="E296" t="n">
-        <v>0.9999811580617803</v>
+        <v>0.9999828470846328</v>
       </c>
     </row>
     <row r="297">
@@ -5477,7 +5477,7 @@
         <v>3.8</v>
       </c>
       <c r="E297" t="n">
-        <v>0.9999999999839262</v>
+        <v>0.9999999999841349</v>
       </c>
     </row>
     <row r="298">
@@ -5494,7 +5494,7 @@
         <v>2.61</v>
       </c>
       <c r="E298" t="n">
-        <v>0.9999999999999654</v>
+        <v>0.999999999999968</v>
       </c>
     </row>
     <row r="299">
@@ -5511,7 +5511,7 @@
         <v>2.77</v>
       </c>
       <c r="E299" t="n">
-        <v>0.9999666283590728</v>
+        <v>0.9999688143373792</v>
       </c>
     </row>
     <row r="300">
@@ -5528,7 +5528,7 @@
         <v>4.66</v>
       </c>
       <c r="E300" t="n">
-        <v>0.9996186625352537</v>
+        <v>0.9995967454165624</v>
       </c>
     </row>
     <row r="301">
@@ -5545,7 +5545,7 @@
         <v>1.27</v>
       </c>
       <c r="E301" t="n">
-        <v>0.999858119982155</v>
+        <v>0.9998721972477882</v>
       </c>
     </row>
     <row r="302">
@@ -5562,7 +5562,7 @@
         <v>3.24</v>
       </c>
       <c r="E302" t="n">
-        <v>0.9999999999349511</v>
+        <v>0.9999999999378226</v>
       </c>
     </row>
     <row r="303">
@@ -5579,7 +5579,7 @@
         <v>4.83</v>
       </c>
       <c r="E303" t="n">
-        <v>0.9999999999552567</v>
+        <v>0.9999999999519344</v>
       </c>
     </row>
     <row r="304">
@@ -5613,7 +5613,7 @@
         <v>1.93</v>
       </c>
       <c r="E305" t="n">
-        <v>0.999999226481909</v>
+        <v>0.9999992966366777</v>
       </c>
     </row>
     <row r="306">
@@ -5647,7 +5647,7 @@
         <v>2.52</v>
       </c>
       <c r="E307" t="n">
-        <v>0.9999999999932543</v>
+        <v>0.999999999993757</v>
       </c>
     </row>
     <row r="308">
@@ -5664,7 +5664,7 @@
         <v>3.36</v>
       </c>
       <c r="E308" t="n">
-        <v>0.9999574660014161</v>
+        <v>0.9999590538339891</v>
       </c>
     </row>
     <row r="309">
@@ -5681,7 +5681,7 @@
         <v>1.68</v>
       </c>
       <c r="E309" t="n">
-        <v>0.9755006511461658</v>
+        <v>0.9777644634970215</v>
       </c>
     </row>
     <row r="310">
@@ -5698,7 +5698,7 @@
         <v>2.38</v>
       </c>
       <c r="E310" t="n">
-        <v>0.9999141876726161</v>
+        <v>0.9999209329373123</v>
       </c>
     </row>
     <row r="311">
@@ -5715,7 +5715,7 @@
         <v>1.27</v>
       </c>
       <c r="E311" t="n">
-        <v>0.999697494422761</v>
+        <v>0.9997295064810113</v>
       </c>
     </row>
     <row r="312">
@@ -5732,7 +5732,7 @@
         <v>2.38</v>
       </c>
       <c r="E312" t="n">
-        <v>0.9750455768508818</v>
+        <v>0.9769717379285127</v>
       </c>
     </row>
     <row r="313">
@@ -5749,7 +5749,7 @@
         <v>0.76</v>
       </c>
       <c r="E313" t="n">
-        <v>0.9999999994645323</v>
+        <v>0.9999999995348343</v>
       </c>
     </row>
     <row r="314">
@@ -5766,7 +5766,7 @@
         <v>1.52</v>
       </c>
       <c r="E314" t="n">
-        <v>0.9999999725967731</v>
+        <v>0.9999999752504677</v>
       </c>
     </row>
     <row r="315">
@@ -5783,7 +5783,7 @@
         <v>0.74</v>
       </c>
       <c r="E315" t="n">
-        <v>0.999999998472874</v>
+        <v>0.9999999986244168</v>
       </c>
     </row>
     <row r="316">
@@ -5800,7 +5800,7 @@
         <v>3.95</v>
       </c>
       <c r="E316" t="n">
-        <v>0.9997856746149318</v>
+        <v>0.9997856342796116</v>
       </c>
     </row>
     <row r="317">
@@ -5817,7 +5817,7 @@
         <v>5.5</v>
       </c>
       <c r="E317" t="n">
-        <v>0.9999999999993392</v>
+        <v>0.9999999999992388</v>
       </c>
     </row>
     <row r="318">
@@ -5834,7 +5834,7 @@
         <v>9.539999999999999</v>
       </c>
       <c r="E318" t="n">
-        <v>0.9999999999999751</v>
+        <v>0.9999999999999467</v>
       </c>
     </row>
     <row r="319">
@@ -5851,7 +5851,7 @@
         <v>4.99</v>
       </c>
       <c r="E319" t="n">
-        <v>0.9999999958991377</v>
+        <v>0.9999999955233352</v>
       </c>
     </row>
     <row r="320">
@@ -5868,7 +5868,7 @@
         <v>0.98</v>
       </c>
       <c r="E320" t="n">
-        <v>0.916080880015985</v>
+        <v>0.9241187908126043</v>
       </c>
     </row>
     <row r="321">
@@ -5885,7 +5885,7 @@
         <v>1.83</v>
       </c>
       <c r="E321" t="n">
-        <v>0.9999999999884146</v>
+        <v>0.9999999999895066</v>
       </c>
     </row>
     <row r="322">
@@ -5902,7 +5902,7 @@
         <v>1.02</v>
       </c>
       <c r="E322" t="n">
-        <v>0.9976474061198072</v>
+        <v>0.9978916614761296</v>
       </c>
     </row>
     <row r="323">
@@ -5919,7 +5919,7 @@
         <v>2.81</v>
       </c>
       <c r="E323" t="n">
-        <v>0.9960822895126453</v>
+        <v>0.9963294573694357</v>
       </c>
     </row>
     <row r="324">
@@ -5936,7 +5936,7 @@
         <v>0.9</v>
       </c>
       <c r="E324" t="n">
-        <v>0.953062482439257</v>
+        <v>0.9578593839654501</v>
       </c>
     </row>
     <row r="325">
@@ -5970,7 +5970,7 @@
         <v>3.08</v>
       </c>
       <c r="E326" t="n">
-        <v>0.9999999709389953</v>
+        <v>0.9999999727113352</v>
       </c>
     </row>
     <row r="327">
@@ -5987,7 +5987,7 @@
         <v>-0.19</v>
       </c>
       <c r="E327" t="n">
-        <v>0.9784060089095794</v>
+        <v>0.9802561410863123</v>
       </c>
     </row>
     <row r="328">
@@ -6004,7 +6004,7 @@
         <v>1.38</v>
       </c>
       <c r="E328" t="n">
-        <v>0.9999160020641839</v>
+        <v>0.9999243364224536</v>
       </c>
     </row>
     <row r="329">
@@ -6021,7 +6021,7 @@
         <v>2.39</v>
       </c>
       <c r="E329" t="n">
-        <v>0.9999999825004179</v>
+        <v>0.9999999839438459</v>
       </c>
     </row>
     <row r="330">
@@ -6038,7 +6038,7 @@
         <v>-2.33</v>
       </c>
       <c r="E330" t="n">
-        <v>0.9550616794956213</v>
+        <v>0.9535610313658225</v>
       </c>
     </row>
     <row r="331">
@@ -6055,7 +6055,7 @@
         <v>1.68</v>
       </c>
       <c r="E331" t="n">
-        <v>0.9999866733616892</v>
+        <v>0.9999879350457935</v>
       </c>
     </row>
     <row r="332">
@@ -6072,7 +6072,7 @@
         <v>1.1</v>
       </c>
       <c r="E332" t="n">
-        <v>0.9999999229040196</v>
+        <v>0.999999930802254</v>
       </c>
     </row>
     <row r="333">
@@ -6106,7 +6106,7 @@
         <v>1.96</v>
       </c>
       <c r="E334" t="n">
-        <v>0.9995921306622119</v>
+        <v>0.9996298098947884</v>
       </c>
     </row>
     <row r="335">
@@ -6123,7 +6123,7 @@
         <v>5.52</v>
       </c>
       <c r="E335" t="n">
-        <v>0.9995800877683196</v>
+        <v>0.9995204408551779</v>
       </c>
     </row>
     <row r="336">
@@ -6140,7 +6140,7 @@
         <v>1.44</v>
       </c>
       <c r="E336" t="n">
-        <v>0.995324782992085</v>
+        <v>0.995799372785392</v>
       </c>
     </row>
     <row r="337">
@@ -6157,7 +6157,7 @@
         <v>1.82</v>
       </c>
       <c r="E337" t="n">
-        <v>0.9992114935108765</v>
+        <v>0.9992839037514957</v>
       </c>
     </row>
     <row r="338">
@@ -6174,7 +6174,7 @@
         <v>2.79</v>
       </c>
       <c r="E338" t="n">
-        <v>0.9999999999967333</v>
+        <v>0.9999999999969447</v>
       </c>
     </row>
     <row r="339">
@@ -6191,7 +6191,7 @@
         <v>0.01</v>
       </c>
       <c r="E339" t="n">
-        <v>0.999999997758263</v>
+        <v>0.9999999979723215</v>
       </c>
     </row>
     <row r="340">
@@ -6208,7 +6208,7 @@
         <v>1.75</v>
       </c>
       <c r="E340" t="n">
-        <v>0.9998553625719048</v>
+        <v>0.9998698610713873</v>
       </c>
     </row>
     <row r="341">
@@ -6225,7 +6225,7 @@
         <v>0.75</v>
       </c>
       <c r="E341" t="n">
-        <v>0.9999999999969975</v>
+        <v>0.9999999999972911</v>
       </c>
     </row>
     <row r="342">
@@ -6242,7 +6242,7 @@
         <v>1.32</v>
       </c>
       <c r="E342" t="n">
-        <v>0.988623928242927</v>
+        <v>0.9897293235741969</v>
       </c>
     </row>
     <row r="343">
@@ -6259,7 +6259,7 @@
         <v>2.9</v>
       </c>
       <c r="E343" t="n">
-        <v>0.9975468967064657</v>
+        <v>0.9976969213935867</v>
       </c>
     </row>
     <row r="344">
@@ -6276,7 +6276,7 @@
         <v>2.42</v>
       </c>
       <c r="E344" t="n">
-        <v>0.9996861419513898</v>
+        <v>0.9997105702685509</v>
       </c>
     </row>
     <row r="345">
@@ -6293,7 +6293,7 @@
         <v>4.45</v>
       </c>
       <c r="E345" t="n">
-        <v>0.9999760108872222</v>
+        <v>0.999975055994885</v>
       </c>
     </row>
     <row r="346">
@@ -6310,7 +6310,7 @@
         <v>3.61</v>
       </c>
       <c r="E346" t="n">
-        <v>0.9582130828007158</v>
+        <v>0.959236570299642</v>
       </c>
     </row>
     <row r="347">
@@ -6327,7 +6327,7 @@
         <v>-0.67</v>
       </c>
       <c r="E347" t="n">
-        <v>0.9996947380786904</v>
+        <v>0.9997157773967709</v>
       </c>
     </row>
     <row r="348">
@@ -6344,7 +6344,7 @@
         <v>0.98</v>
       </c>
       <c r="E348" t="n">
-        <v>0.999909902704458</v>
+        <v>0.9999189750005701</v>
       </c>
     </row>
     <row r="349">
@@ -6361,7 +6361,7 @@
         <v>2.88</v>
       </c>
       <c r="E349" t="n">
-        <v>0.9495754951941566</v>
+        <v>0.9525014068654655</v>
       </c>
     </row>
     <row r="350">
@@ -6378,7 +6378,7 @@
         <v>8.140000000000001</v>
       </c>
       <c r="E350" t="n">
-        <v>0.9999668814685272</v>
+        <v>0.9999460160978786</v>
       </c>
     </row>
     <row r="351">
@@ -6395,7 +6395,7 @@
         <v>3.8</v>
       </c>
       <c r="E351" t="n">
-        <v>0.9999999999999756</v>
+        <v>0.999999999999976</v>
       </c>
     </row>
     <row r="352">
@@ -6412,7 +6412,7 @@
         <v>2.22</v>
       </c>
       <c r="E352" t="n">
-        <v>0.9999894813248195</v>
+        <v>0.9999904005727515</v>
       </c>
     </row>
     <row r="353">
@@ -6446,7 +6446,7 @@
         <v>3.55</v>
       </c>
       <c r="E354" t="n">
-        <v>0.9999999420008073</v>
+        <v>0.9999999435632689</v>
       </c>
     </row>
     <row r="355">
@@ -6463,7 +6463,7 @@
         <v>0.25</v>
       </c>
       <c r="E355" t="n">
-        <v>0.9990392789694773</v>
+        <v>0.9991312784737003</v>
       </c>
     </row>
     <row r="356">
@@ -6480,7 +6480,7 @@
         <v>-1.48</v>
       </c>
       <c r="E356" t="n">
-        <v>0.9671666678898437</v>
+        <v>0.9681106971257378</v>
       </c>
     </row>
     <row r="357">
@@ -6497,7 +6497,7 @@
         <v>2.64</v>
       </c>
       <c r="E357" t="n">
-        <v>0.9994969164080105</v>
+        <v>0.9995323438716005</v>
       </c>
     </row>
     <row r="358">
@@ -6514,7 +6514,7 @@
         <v>3.48</v>
       </c>
       <c r="E358" t="n">
-        <v>0.9999983176116037</v>
+        <v>0.9999983815537555</v>
       </c>
     </row>
     <row r="359">
@@ -6565,7 +6565,7 @@
         <v>2.96</v>
       </c>
       <c r="E361" t="n">
-        <v>0.9999999999999445</v>
+        <v>0.9999999999999476</v>
       </c>
     </row>
     <row r="362">
@@ -6582,7 +6582,7 @@
         <v>10.9</v>
       </c>
       <c r="E362" t="n">
-        <v>0.9999999995360689</v>
+        <v>0.9999999986822594</v>
       </c>
     </row>
     <row r="363">
@@ -6599,7 +6599,7 @@
         <v>-0.21</v>
       </c>
       <c r="E363" t="n">
-        <v>0.9996786867684451</v>
+        <v>0.9997048080797091</v>
       </c>
     </row>
     <row r="364">
@@ -6616,7 +6616,7 @@
         <v>6.76</v>
       </c>
       <c r="E364" t="n">
-        <v>0.9997901487744675</v>
+        <v>0.9997202267792753</v>
       </c>
     </row>
     <row r="365">
@@ -6633,7 +6633,7 @@
         <v>1.81</v>
       </c>
       <c r="E365" t="n">
-        <v>0.9999999997989977</v>
+        <v>0.9999999998174989</v>
       </c>
     </row>
     <row r="366">
@@ -6650,7 +6650,7 @@
         <v>1.85</v>
       </c>
       <c r="E366" t="n">
-        <v>0.999965300981039</v>
+        <v>0.9999688414617184</v>
       </c>
     </row>
     <row r="367">
@@ -6667,7 +6667,7 @@
         <v>0.48</v>
       </c>
       <c r="E367" t="n">
-        <v>0.9441549214975018</v>
+        <v>0.9492018148111043</v>
       </c>
     </row>
     <row r="368">
@@ -6684,7 +6684,7 @@
         <v>1.75</v>
       </c>
       <c r="E368" t="n">
-        <v>0.9999999999997957</v>
+        <v>0.9999999999998277</v>
       </c>
     </row>
     <row r="369">
@@ -6701,7 +6701,7 @@
         <v>-1.33</v>
       </c>
       <c r="E369" t="n">
-        <v>0.9687816562605944</v>
+        <v>0.9702446614859374</v>
       </c>
     </row>
     <row r="370">
@@ -6718,7 +6718,7 @@
         <v>0.8</v>
       </c>
       <c r="E370" t="n">
-        <v>0.9999999999971059</v>
+        <v>0.9999999999973896</v>
       </c>
     </row>
     <row r="371">
@@ -6735,7 +6735,7 @@
         <v>5.6</v>
       </c>
       <c r="E371" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9999999999999742</v>
       </c>
     </row>
     <row r="372">
@@ -6752,7 +6752,7 @@
         <v>1.63</v>
       </c>
       <c r="E372" t="n">
-        <v>0.9999999999999591</v>
+        <v>0.9999999999999631</v>
       </c>
     </row>
     <row r="373">
@@ -6769,7 +6769,7 @@
         <v>0.68</v>
       </c>
       <c r="E373" t="n">
-        <v>0.9999999354746322</v>
+        <v>0.9999999417451851</v>
       </c>
     </row>
     <row r="374">
@@ -6786,7 +6786,7 @@
         <v>2.54</v>
       </c>
       <c r="E374" t="n">
-        <v>0.9999999996539795</v>
+        <v>0.9999999996794791</v>
       </c>
     </row>
     <row r="375">
@@ -6803,7 +6803,7 @@
         <v>3.56</v>
       </c>
       <c r="E375" t="n">
-        <v>0.9999999999998779</v>
+        <v>0.999999999999881</v>
       </c>
     </row>
     <row r="376">
@@ -6820,7 +6820,7 @@
         <v>2.47</v>
       </c>
       <c r="E376" t="n">
-        <v>0.9999969376453891</v>
+        <v>0.9999971715662027</v>
       </c>
     </row>
     <row r="377">
@@ -6837,7 +6837,7 @@
         <v>-1.9</v>
       </c>
       <c r="E377" t="n">
-        <v>0.9996113837920407</v>
+        <v>0.9996146727828122</v>
       </c>
     </row>
     <row r="378">
@@ -6854,7 +6854,7 @@
         <v>4.03</v>
       </c>
       <c r="E378" t="n">
-        <v>0.9999999999997939</v>
+        <v>0.9999999999997926</v>
       </c>
     </row>
     <row r="379">
@@ -6871,7 +6871,7 @@
         <v>2.7</v>
       </c>
       <c r="E379" t="n">
-        <v>0.9999999996071072</v>
+        <v>0.9999999996346904</v>
       </c>
     </row>
     <row r="380">
@@ -6888,7 +6888,7 @@
         <v>1.04</v>
       </c>
       <c r="E380" t="n">
-        <v>0.9999987543515241</v>
+        <v>0.9999988804407823</v>
       </c>
     </row>
     <row r="381">
@@ -6905,7 +6905,7 @@
         <v>2.9</v>
       </c>
       <c r="E381" t="n">
-        <v>0.9999999998295799</v>
+        <v>0.9999999998398548</v>
       </c>
     </row>
     <row r="382">
@@ -6922,7 +6922,7 @@
         <v>3.1</v>
       </c>
       <c r="E382" t="n">
-        <v>0.9999998001995491</v>
+        <v>0.9999998103697483</v>
       </c>
     </row>
     <row r="383">
@@ -6939,7 +6939,7 @@
         <v>1.94</v>
       </c>
       <c r="E383" t="n">
-        <v>0.9999999746250373</v>
+        <v>0.9999999769342416</v>
       </c>
     </row>
     <row r="384">
@@ -6956,7 +6956,7 @@
         <v>6.65</v>
       </c>
       <c r="E384" t="n">
-        <v>0.9276620734306741</v>
+        <v>0.9062909158276569</v>
       </c>
     </row>
     <row r="385">
@@ -6973,7 +6973,7 @@
         <v>2.38</v>
       </c>
       <c r="E385" t="n">
-        <v>0.9371771595219515</v>
+        <v>0.9419349344099984</v>
       </c>
     </row>
     <row r="386">
@@ -6990,7 +6990,7 @@
         <v>2.54</v>
       </c>
       <c r="E386" t="n">
-        <v>0.999999999999992</v>
+        <v>0.9999999999999925</v>
       </c>
     </row>
     <row r="387">
@@ -7024,7 +7024,7 @@
         <v>4.21</v>
       </c>
       <c r="E388" t="n">
-        <v>0.9964871535127093</v>
+        <v>0.9964614639048058</v>
       </c>
     </row>
     <row r="389">
@@ -7041,7 +7041,7 @@
         <v>6.42</v>
       </c>
       <c r="E389" t="n">
-        <v>0.9718147867428915</v>
+        <v>0.9643016877573387</v>
       </c>
     </row>
     <row r="390">
@@ -7058,7 +7058,7 @@
         <v>2.74</v>
       </c>
       <c r="E390" t="n">
-        <v>0.9997708548999085</v>
+        <v>0.9997867719574899</v>
       </c>
     </row>
     <row r="391">
@@ -7092,7 +7092,7 @@
         <v>0.62</v>
       </c>
       <c r="E392" t="n">
-        <v>0.9999148655661341</v>
+        <v>0.9999231941165629</v>
       </c>
     </row>
     <row r="393">
@@ -7109,7 +7109,7 @@
         <v>1.28</v>
       </c>
       <c r="E393" t="n">
-        <v>0.999999999997875</v>
+        <v>0.9999999999980891</v>
       </c>
     </row>
     <row r="394">
@@ -7126,7 +7126,7 @@
         <v>3.97</v>
       </c>
       <c r="E394" t="n">
-        <v>0.99984771683615</v>
+        <v>0.9998474806220705</v>
       </c>
     </row>
     <row r="395">
@@ -7177,7 +7177,7 @@
         <v>3.52</v>
       </c>
       <c r="E397" t="n">
-        <v>0.9999989345786453</v>
+        <v>0.9999989653256925</v>
       </c>
     </row>
     <row r="398">
@@ -7194,7 +7194,7 @@
         <v>1.91</v>
       </c>
       <c r="E398" t="n">
-        <v>0.99999711611262</v>
+        <v>0.9999973809002581</v>
       </c>
     </row>
     <row r="399">
@@ -7211,7 +7211,7 @@
         <v>2.44</v>
       </c>
       <c r="E399" t="n">
-        <v>0.998843387660227</v>
+        <v>0.9989414944003876</v>
       </c>
     </row>
     <row r="400">
@@ -7228,7 +7228,7 @@
         <v>-0.17</v>
       </c>
       <c r="E400" t="n">
-        <v>0.9999999984841503</v>
+        <v>0.9999999986303036</v>
       </c>
     </row>
     <row r="401">
@@ -7245,7 +7245,7 @@
         <v>3.01</v>
       </c>
       <c r="E401" t="n">
-        <v>0.999999999966982</v>
+        <v>0.9999999999687876</v>
       </c>
     </row>
     <row r="402">
@@ -7262,7 +7262,7 @@
         <v>-0.5</v>
       </c>
       <c r="E402" t="n">
-        <v>0.8701844965983732</v>
+        <v>0.8787711694226842</v>
       </c>
     </row>
     <row r="403">
@@ -7279,7 +7279,7 @@
         <v>3.16</v>
       </c>
       <c r="E403" t="n">
-        <v>0.9999999991700035</v>
+        <v>0.9999999992129673</v>
       </c>
     </row>
     <row r="404">
@@ -7296,7 +7296,7 @@
         <v>3.05</v>
       </c>
       <c r="E404" t="n">
-        <v>0.9998477154074982</v>
+        <v>0.9998558703866515</v>
       </c>
     </row>
     <row r="405">
@@ -7313,7 +7313,7 @@
         <v>0.75</v>
       </c>
       <c r="E405" t="n">
-        <v>0.979397845381721</v>
+        <v>0.9813830159503119</v>
       </c>
     </row>
     <row r="406">
@@ -7330,7 +7330,7 @@
         <v>1.24</v>
       </c>
       <c r="E406" t="n">
-        <v>0.999999985914153</v>
+        <v>0.9999999873309836</v>
       </c>
     </row>
     <row r="407">
@@ -7347,7 +7347,7 @@
         <v>-1.54</v>
       </c>
       <c r="E407" t="n">
-        <v>0.9972329340468302</v>
+        <v>0.9973241029401716</v>
       </c>
     </row>
     <row r="408">
@@ -7364,7 +7364,7 @@
         <v>2.53</v>
       </c>
       <c r="E408" t="n">
-        <v>0.9999983408596639</v>
+        <v>0.9999984817533437</v>
       </c>
     </row>
     <row r="409">
@@ -7381,7 +7381,7 @@
         <v>4.74</v>
       </c>
       <c r="E409" t="n">
-        <v>0.7837779353057376</v>
+        <v>0.7729626176960801</v>
       </c>
     </row>
     <row r="410">
@@ -7398,7 +7398,7 @@
         <v>0.68</v>
       </c>
       <c r="E410" t="n">
-        <v>0.946082328348786</v>
+        <v>0.9515110240623591</v>
       </c>
     </row>
     <row r="411">
@@ -7415,7 +7415,7 @@
         <v>0.33</v>
       </c>
       <c r="E411" t="n">
-        <v>0.9998615403022492</v>
+        <v>0.999874645718927</v>
       </c>
     </row>
     <row r="412">
@@ -7432,7 +7432,7 @@
         <v>0.5</v>
       </c>
       <c r="E412" t="n">
-        <v>0.9993396674709925</v>
+        <v>0.9994051226087655</v>
       </c>
     </row>
     <row r="413">
@@ -7449,7 +7449,7 @@
         <v>1.47</v>
       </c>
       <c r="E413" t="n">
-        <v>0.9999999979736645</v>
+        <v>0.9999999981760426</v>
       </c>
     </row>
     <row r="414">
@@ -7466,7 +7466,7 @@
         <v>2.62</v>
       </c>
       <c r="E414" t="n">
-        <v>0.9999858166489128</v>
+        <v>0.9999868830432881</v>
       </c>
     </row>
     <row r="415">
@@ -7483,7 +7483,7 @@
         <v>8.81</v>
       </c>
       <c r="E415" t="n">
-        <v>0.9888306020846063</v>
+        <v>0.9793667912517072</v>
       </c>
     </row>
     <row r="416">
@@ -7500,7 +7500,7 @@
         <v>2.32</v>
       </c>
       <c r="E416" t="n">
-        <v>0.9998449421076797</v>
+        <v>0.9998576938208736</v>
       </c>
     </row>
     <row r="417">
@@ -7517,7 +7517,7 @@
         <v>-2.67</v>
       </c>
       <c r="E417" t="n">
-        <v>0.8733368175381364</v>
+        <v>0.8680330861106561</v>
       </c>
     </row>
     <row r="418">
@@ -7534,7 +7534,7 @@
         <v>7.6</v>
       </c>
       <c r="E418" t="n">
-        <v>0.9999999998219229</v>
+        <v>0.9999999997279572</v>
       </c>
     </row>
     <row r="419">
@@ -7551,7 +7551,7 @@
         <v>2.89</v>
       </c>
       <c r="E419" t="n">
-        <v>0.9999999999999933</v>
+        <v>0.9999999999999938</v>
       </c>
     </row>
     <row r="420">
@@ -7585,7 +7585,7 @@
         <v>1.51</v>
       </c>
       <c r="E421" t="n">
-        <v>0.9999999981392085</v>
+        <v>0.9999999983203613</v>
       </c>
     </row>
     <row r="422">
@@ -7602,7 +7602,7 @@
         <v>2.45</v>
       </c>
       <c r="E422" t="n">
-        <v>0.9997071050660498</v>
+        <v>0.9997297329446064</v>
       </c>
     </row>
     <row r="423">
@@ -7619,7 +7619,7 @@
         <v>3.04</v>
       </c>
       <c r="E423" t="n">
-        <v>0.999999645674449</v>
+        <v>0.9999996657761873</v>
       </c>
     </row>
     <row r="424">
@@ -7636,7 +7636,7 @@
         <v>7.55</v>
       </c>
       <c r="E424" t="n">
-        <v>0.9998083167058534</v>
+        <v>0.9997116538801597</v>
       </c>
     </row>
     <row r="425">
@@ -7653,7 +7653,7 @@
         <v>6.76</v>
       </c>
       <c r="E425" t="n">
-        <v>0.9999999999954889</v>
+        <v>0.9999999999939861</v>
       </c>
     </row>
     <row r="426">
@@ -7670,7 +7670,7 @@
         <v>0.63</v>
       </c>
       <c r="E426" t="n">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427">
@@ -7687,7 +7687,7 @@
         <v>2.68</v>
       </c>
       <c r="E427" t="n">
-        <v>0.9999999999994089</v>
+        <v>0.9999999999994498</v>
       </c>
     </row>
     <row r="428">
@@ -7704,7 +7704,7 @@
         <v>1.69</v>
       </c>
       <c r="E428" t="n">
-        <v>0.9323433842919556</v>
+        <v>0.9395105349167437</v>
       </c>
     </row>
     <row r="429">
@@ -7721,7 +7721,7 @@
         <v>3.12</v>
       </c>
       <c r="E429" t="n">
-        <v>0.9999950876636793</v>
+        <v>0.9999953410511487</v>
       </c>
     </row>
     <row r="430">
@@ -7755,7 +7755,7 @@
         <v>1.71</v>
       </c>
       <c r="E431" t="n">
-        <v>0.9954720417140988</v>
+        <v>0.995900121260305</v>
       </c>
     </row>
     <row r="432">
@@ -7772,7 +7772,7 @@
         <v>4.1</v>
       </c>
       <c r="E432" t="n">
-        <v>0.9999997537262543</v>
+        <v>0.9999997510354252</v>
       </c>
     </row>
     <row r="433">
@@ -7789,7 +7789,7 @@
         <v>0.15</v>
       </c>
       <c r="E433" t="n">
-        <v>0.8657381838325202</v>
+        <v>0.8771608463731094</v>
       </c>
     </row>
     <row r="434">
@@ -7806,7 +7806,7 @@
         <v>3.58</v>
       </c>
       <c r="E434" t="n">
-        <v>0.9999999999921738</v>
+        <v>0.999999999992371</v>
       </c>
     </row>
     <row r="435">
@@ -7823,7 +7823,7 @@
         <v>0.63</v>
       </c>
       <c r="E435" t="n">
-        <v>0.9999999999999987</v>
+        <v>0.9999999999999991</v>
       </c>
     </row>
     <row r="436">
@@ -7840,7 +7840,7 @@
         <v>1.23</v>
       </c>
       <c r="E436" t="n">
-        <v>0.9999999961221002</v>
+        <v>0.9999999965197017</v>
       </c>
     </row>
     <row r="437">
@@ -7857,7 +7857,7 @@
         <v>2.3</v>
       </c>
       <c r="E437" t="n">
-        <v>0.9905766758477407</v>
+        <v>0.99137171894636</v>
       </c>
     </row>
     <row r="438">
@@ -7874,7 +7874,7 @@
         <v>2.78</v>
       </c>
       <c r="E438" t="n">
-        <v>0.9999998571068285</v>
+        <v>0.9999998663607959</v>
       </c>
     </row>
     <row r="439">
@@ -7891,7 +7891,7 @@
         <v>5.51</v>
       </c>
       <c r="E439" t="n">
-        <v>0.9999999982975085</v>
+        <v>0.99999999803926</v>
       </c>
     </row>
     <row r="440">
@@ -7908,7 +7908,7 @@
         <v>-0.35</v>
       </c>
       <c r="E440" t="n">
-        <v>0.9999244828516494</v>
+        <v>0.9999307876302064</v>
       </c>
     </row>
     <row r="441">
@@ -7925,7 +7925,7 @@
         <v>-0.01</v>
       </c>
       <c r="E441" t="n">
-        <v>0.967244086629892</v>
+        <v>0.9702982443888069</v>
       </c>
     </row>
     <row r="442">
@@ -7942,7 +7942,7 @@
         <v>1.98</v>
       </c>
       <c r="E442" t="n">
-        <v>0.9999999999998965</v>
+        <v>0.9999999999999059</v>
       </c>
     </row>
     <row r="443">
@@ -7976,7 +7976,7 @@
         <v>3.58</v>
       </c>
       <c r="E444" t="n">
-        <v>0.9997909748759966</v>
+        <v>0.9997965134282907</v>
       </c>
     </row>
     <row r="445">
@@ -7993,7 +7993,7 @@
         <v>3.69</v>
       </c>
       <c r="E445" t="n">
-        <v>0.9999988789460499</v>
+        <v>0.9999988984411182</v>
       </c>
     </row>
     <row r="446">
@@ -8010,7 +8010,7 @@
         <v>3.56</v>
       </c>
       <c r="E446" t="n">
-        <v>0.9997469038194876</v>
+        <v>0.9997533622841539</v>
       </c>
     </row>
     <row r="447">
@@ -8027,7 +8027,7 @@
         <v>2.95</v>
       </c>
       <c r="E447" t="n">
-        <v>0.9999999699274449</v>
+        <v>0.9999999718160941</v>
       </c>
     </row>
     <row r="448">
@@ -8044,7 +8044,7 @@
         <v>1.84</v>
       </c>
       <c r="E448" t="n">
-        <v>0.9999960780845538</v>
+        <v>0.9999964400859331</v>
       </c>
     </row>
     <row r="449">
@@ -8061,7 +8061,7 @@
         <v>5.05</v>
       </c>
       <c r="E449" t="n">
-        <v>0.9999998761995835</v>
+        <v>0.9999998640852289</v>
       </c>
     </row>
     <row r="450">
@@ -8078,7 +8078,7 @@
         <v>2.56</v>
       </c>
       <c r="E450" t="n">
-        <v>0.9765390455306253</v>
+        <v>0.9782421985010663</v>
       </c>
     </row>
     <row r="451">
@@ -8095,7 +8095,7 @@
         <v>1.22</v>
       </c>
       <c r="E451" t="n">
-        <v>0.9999999924525231</v>
+        <v>0.9999999931984753</v>
       </c>
     </row>
     <row r="452">
@@ -8112,7 +8112,7 @@
         <v>1.2</v>
       </c>
       <c r="E452" t="n">
-        <v>0.9999999840926038</v>
+        <v>0.9999999858418783</v>
       </c>
     </row>
     <row r="453">
@@ -8129,7 +8129,7 @@
         <v>4</v>
       </c>
       <c r="E453" t="n">
-        <v>0.99999999855741</v>
+        <v>0.9999999985587142</v>
       </c>
     </row>
     <row r="454">
@@ -8146,7 +8146,7 @@
         <v>0.83</v>
       </c>
       <c r="E454" t="n">
-        <v>0.9999999366478163</v>
+        <v>0.9999999428674652</v>
       </c>
     </row>
     <row r="455">
@@ -8163,7 +8163,7 @@
         <v>0.91</v>
       </c>
       <c r="E455" t="n">
-        <v>0.6037482545973829</v>
+        <v>0.6365230678830452</v>
       </c>
     </row>
     <row r="456">
@@ -8197,7 +8197,7 @@
         <v>2.23</v>
       </c>
       <c r="E457" t="n">
-        <v>0.9995189163411438</v>
+        <v>0.999558757025604</v>
       </c>
     </row>
     <row r="458">
@@ -8214,7 +8214,7 @@
         <v>5.23</v>
       </c>
       <c r="E458" t="n">
-        <v>0.9993024591927878</v>
+        <v>0.9992207091675075</v>
       </c>
     </row>
     <row r="459">
@@ -8231,7 +8231,7 @@
         <v>0.78</v>
       </c>
       <c r="E459" t="n">
-        <v>0.9999999995864286</v>
+        <v>0.9999999996293267</v>
       </c>
     </row>
     <row r="460">
@@ -8248,7 +8248,7 @@
         <v>2.93</v>
       </c>
       <c r="E460" t="n">
-        <v>0.9990701849856323</v>
+        <v>0.9991248876086637</v>
       </c>
     </row>
     <row r="461">
@@ -8265,7 +8265,7 @@
         <v>1.45</v>
       </c>
       <c r="E461" t="n">
-        <v>0.9986753973596053</v>
+        <v>0.9988035353679064</v>
       </c>
     </row>
     <row r="462">
@@ -8282,7 +8282,7 @@
         <v>4.48</v>
       </c>
       <c r="E462" t="n">
-        <v>0.9999999785326741</v>
+        <v>0.9999999776269684</v>
       </c>
     </row>
     <row r="463">
@@ -8299,7 +8299,7 @@
         <v>1.3</v>
       </c>
       <c r="E463" t="n">
-        <v>0.9999903185398362</v>
+        <v>0.9999912684030177</v>
       </c>
     </row>
     <row r="464">
@@ -8333,7 +8333,7 @@
         <v>3.09</v>
       </c>
       <c r="E465" t="n">
-        <v>0.9999877518284747</v>
+        <v>0.999988411269022</v>
       </c>
     </row>
     <row r="466">
@@ -8367,7 +8367,7 @@
         <v>0.2</v>
       </c>
       <c r="E467" t="n">
-        <v>0.9855747352555558</v>
+        <v>0.9869153529012243</v>
       </c>
     </row>
     <row r="468">
@@ -8401,7 +8401,7 @@
         <v>1.95</v>
       </c>
       <c r="E469" t="n">
-        <v>0.9999360229718601</v>
+        <v>0.999941818368927</v>
       </c>
     </row>
     <row r="470">
@@ -8418,7 +8418,7 @@
         <v>2.75</v>
       </c>
       <c r="E470" t="n">
-        <v>0.5051960464748131</v>
+        <v>0.5221440280310838</v>
       </c>
     </row>
     <row r="471">
@@ -8435,7 +8435,7 @@
         <v>-2.37</v>
       </c>
       <c r="E471" t="n">
-        <v>0.9976283773428753</v>
+        <v>0.9975516480626965</v>
       </c>
     </row>
     <row r="472">
@@ -8452,7 +8452,7 @@
         <v>0.75</v>
       </c>
       <c r="E472" t="n">
-        <v>0.9999054774123776</v>
+        <v>0.9999172670415781</v>
       </c>
     </row>
     <row r="473">
@@ -8486,7 +8486,7 @@
         <v>2.08</v>
       </c>
       <c r="E474" t="n">
-        <v>0.9999999999985842</v>
+        <v>0.999999999998709</v>
       </c>
     </row>
     <row r="475">
@@ -8503,7 +8503,7 @@
         <v>1.02</v>
       </c>
       <c r="E475" t="n">
-        <v>0.9996593168657356</v>
+        <v>0.9996940302300777</v>
       </c>
     </row>
     <row r="476">
@@ -8520,7 +8520,7 @@
         <v>4.6</v>
       </c>
       <c r="E476" t="n">
-        <v>0.9999999999999774</v>
+        <v>0.9999999999999765</v>
       </c>
     </row>
     <row r="477">
@@ -8554,7 +8554,7 @@
         <v>1.34</v>
       </c>
       <c r="E478" t="n">
-        <v>0.9894386811521217</v>
+        <v>0.9906198206217057</v>
       </c>
     </row>
     <row r="479">
@@ -8571,7 +8571,7 @@
         <v>1.88</v>
       </c>
       <c r="E479" t="n">
-        <v>0.999988945245075</v>
+        <v>0.999990053709426</v>
       </c>
     </row>
     <row r="480">
@@ -8588,7 +8588,7 @@
         <v>1.2</v>
       </c>
       <c r="E480" t="n">
-        <v>0.9467636514946418</v>
+        <v>0.9517456781626428</v>
       </c>
     </row>
     <row r="481">
@@ -8605,7 +8605,7 @@
         <v>4.37</v>
       </c>
       <c r="E481" t="n">
-        <v>0.9999862061963899</v>
+        <v>0.999985754486132</v>
       </c>
     </row>
     <row r="482">
@@ -8622,7 +8622,7 @@
         <v>1.91</v>
       </c>
       <c r="E482" t="n">
-        <v>0.9999974504054338</v>
+        <v>0.9999976804614493</v>
       </c>
     </row>
     <row r="483">
@@ -8639,7 +8639,7 @@
         <v>2.83</v>
       </c>
       <c r="E483" t="n">
-        <v>0.9999997986372063</v>
+        <v>0.9999998112628492</v>
       </c>
     </row>
     <row r="484">
@@ -8673,7 +8673,7 @@
         <v>2.65</v>
       </c>
       <c r="E485" t="n">
-        <v>0.9724711035045804</v>
+        <v>0.9743659454661836</v>
       </c>
     </row>
     <row r="486">
@@ -8690,7 +8690,7 @@
         <v>4.66</v>
       </c>
       <c r="E486" t="n">
-        <v>0.9999999899169381</v>
+        <v>0.9999999893262418</v>
       </c>
     </row>
     <row r="487">
@@ -8707,7 +8707,7 @@
         <v>1.88</v>
       </c>
       <c r="E487" t="n">
-        <v>0.9999998898863031</v>
+        <v>0.9999999005392134</v>
       </c>
     </row>
     <row r="488">
@@ -8741,7 +8741,7 @@
         <v>0.97</v>
       </c>
       <c r="E489" t="n">
-        <v>0.9995953116010272</v>
+        <v>0.9996356004980017</v>
       </c>
     </row>
     <row r="490">
@@ -8758,7 +8758,7 @@
         <v>5.93</v>
       </c>
       <c r="E490" t="n">
-        <v>0.9999968031759857</v>
+        <v>0.9999961355502461</v>
       </c>
     </row>
     <row r="491">
@@ -8775,7 +8775,7 @@
         <v>0.67</v>
       </c>
       <c r="E491" t="n">
-        <v>0.9997048923703881</v>
+        <v>0.9997348995042294</v>
       </c>
     </row>
     <row r="492">
@@ -8792,7 +8792,7 @@
         <v>1.53</v>
       </c>
       <c r="E492" t="n">
-        <v>0.9999996171623331</v>
+        <v>0.9999996576487877</v>
       </c>
     </row>
     <row r="493">
@@ -8809,7 +8809,7 @@
         <v>3.43</v>
       </c>
       <c r="E493" t="n">
-        <v>0.9999999999193445</v>
+        <v>0.9999999999220526</v>
       </c>
     </row>
     <row r="494">
@@ -8826,7 +8826,7 @@
         <v>0.52</v>
       </c>
       <c r="E494" t="n">
-        <v>0.9999999999999147</v>
+        <v>0.9999999999999232</v>
       </c>
     </row>
     <row r="495">
@@ -8843,7 +8843,7 @@
         <v>1.74</v>
       </c>
       <c r="E495" t="n">
-        <v>0.9999999654778119</v>
+        <v>0.999999968745084</v>
       </c>
     </row>
     <row r="496">
@@ -8894,7 +8894,7 @@
         <v>2.73</v>
       </c>
       <c r="E498" t="n">
-        <v>0.9954987935977082</v>
+        <v>0.9958056349341499</v>
       </c>
     </row>
     <row r="499">
@@ -8911,7 +8911,7 @@
         <v>3.5</v>
       </c>
       <c r="E499" t="n">
-        <v>0.9995754860624183</v>
+        <v>0.9995885245177012</v>
       </c>
     </row>
     <row r="500">
@@ -8945,7 +8945,7 @@
         <v>2.1</v>
       </c>
       <c r="E501" t="n">
-        <v>0.9441985963689364</v>
+        <v>0.9488292562931758</v>
       </c>
     </row>
     <row r="502">
@@ -8962,7 +8962,7 @@
         <v>1.9</v>
       </c>
       <c r="E502" t="n">
-        <v>0.9995164001370845</v>
+        <v>0.9995628495440921</v>
       </c>
     </row>
     <row r="503">
@@ -8979,7 +8979,7 @@
         <v>6.72</v>
       </c>
       <c r="E503" t="n">
-        <v>0.9999995574662626</v>
+        <v>0.9999994219019365</v>
       </c>
     </row>
     <row r="504">
@@ -8996,7 +8996,7 @@
         <v>3.37</v>
       </c>
       <c r="E504" t="n">
-        <v>0.999999999951215</v>
+        <v>0.9999999999533005</v>
       </c>
     </row>
     <row r="505">
@@ -9013,7 +9013,7 @@
         <v>2.22</v>
       </c>
       <c r="E505" t="n">
-        <v>0.999999999936156</v>
+        <v>0.9999999999417399</v>
       </c>
     </row>
     <row r="506">
@@ -9030,7 +9030,7 @@
         <v>2.97</v>
       </c>
       <c r="E506" t="n">
-        <v>0.999244591221525</v>
+        <v>0.9992880386289565</v>
       </c>
     </row>
     <row r="507">
@@ -9064,7 +9064,7 @@
         <v>4.2</v>
       </c>
       <c r="E508" t="n">
-        <v>0.9999999997425633</v>
+        <v>0.9999999997376903</v>
       </c>
     </row>
     <row r="509">
@@ -9081,7 +9081,7 @@
         <v>1.97</v>
       </c>
       <c r="E509" t="n">
-        <v>0.9999998766418755</v>
+        <v>0.9999998879194819</v>
       </c>
     </row>
     <row r="510">
@@ -9098,7 +9098,7 @@
         <v>0.54</v>
       </c>
       <c r="E510" t="n">
-        <v>0.9999999999998783</v>
+        <v>0.9999999999998903</v>
       </c>
     </row>
     <row r="511">
@@ -9115,7 +9115,7 @@
         <v>4.67</v>
       </c>
       <c r="E511" t="n">
-        <v>0.9999994453147278</v>
+        <v>0.9999994153327222</v>
       </c>
     </row>
     <row r="512">
@@ -9132,7 +9132,7 @@
         <v>1.43</v>
       </c>
       <c r="E512" t="n">
-        <v>0.9541115980529813</v>
+        <v>0.9584827432848332</v>
       </c>
     </row>
     <row r="513">
@@ -9149,7 +9149,7 @@
         <v>2.42</v>
       </c>
       <c r="E513" t="n">
-        <v>0.9999740103439749</v>
+        <v>0.9999760223100529</v>
       </c>
     </row>
     <row r="514">
@@ -9166,7 +9166,7 @@
         <v>0.79</v>
       </c>
       <c r="E514" t="n">
-        <v>0.9702977100003631</v>
+        <v>0.973134349007151</v>
       </c>
     </row>
     <row r="515">
@@ -9183,7 +9183,7 @@
         <v>0.48</v>
       </c>
       <c r="E515" t="n">
-        <v>0.9999984420304119</v>
+        <v>0.9999985910989966</v>
       </c>
     </row>
     <row r="516">
@@ -9200,7 +9200,7 @@
         <v>2.66</v>
       </c>
       <c r="E516" t="n">
-        <v>0.9999996728767628</v>
+        <v>0.9999996955332061</v>
       </c>
     </row>
     <row r="517">
@@ -9217,7 +9217,7 @@
         <v>1.12</v>
       </c>
       <c r="E517" t="n">
-        <v>0.9992888747930712</v>
+        <v>0.999362072998017</v>
       </c>
     </row>
     <row r="518">
@@ -9234,7 +9234,7 @@
         <v>2</v>
       </c>
       <c r="E518" t="n">
-        <v>0.9927295747989952</v>
+        <v>0.9933799996354564</v>
       </c>
     </row>
     <row r="519">
@@ -9268,7 +9268,7 @@
         <v>1.65</v>
       </c>
       <c r="E520" t="n">
-        <v>0.9999223912156086</v>
+        <v>0.9999301264963896</v>
       </c>
     </row>
     <row r="521">
@@ -9285,7 +9285,7 @@
         <v>4.75</v>
       </c>
       <c r="E521" t="n">
-        <v>0.9999942122920595</v>
+        <v>0.9999938232875213</v>
       </c>
     </row>
     <row r="522">
@@ -9302,7 +9302,7 @@
         <v>2.36</v>
       </c>
       <c r="E522" t="n">
-        <v>0.9838148438612691</v>
+        <v>0.9850850902863764</v>
       </c>
     </row>
     <row r="523">
@@ -9319,7 +9319,7 @@
         <v>2.2</v>
       </c>
       <c r="E523" t="n">
-        <v>0.9999960981334619</v>
+        <v>0.9999964353882117</v>
       </c>
     </row>
     <row r="524">
@@ -9336,7 +9336,7 @@
         <v>3.23</v>
       </c>
       <c r="E524" t="n">
-        <v>0.9999995876559009</v>
+        <v>0.9999996088258475</v>
       </c>
     </row>
     <row r="525">
@@ -9370,7 +9370,7 @@
         <v>-0.21</v>
       </c>
       <c r="E526" t="n">
-        <v>0.9972288119865278</v>
+        <v>0.9974569736240275</v>
       </c>
     </row>
     <row r="527">
@@ -9387,7 +9387,7 @@
         <v>3.57</v>
       </c>
       <c r="E527" t="n">
-        <v>0.999416065007712</v>
+        <v>0.9994308527499552</v>
       </c>
     </row>
     <row r="528">
@@ -9404,7 +9404,7 @@
         <v>2.05</v>
       </c>
       <c r="E528" t="n">
-        <v>0.9999867560755852</v>
+        <v>0.9999879303898834</v>
       </c>
     </row>
     <row r="529">
@@ -9421,7 +9421,7 @@
         <v>2.47</v>
       </c>
       <c r="E529" t="n">
-        <v>0.9999716230399024</v>
+        <v>0.9999737857713269</v>
       </c>
     </row>
     <row r="530">
@@ -9438,7 +9438,7 @@
         <v>1.89</v>
       </c>
       <c r="E530" t="n">
-        <v>0.9999848459709748</v>
+        <v>0.9999863596803298</v>
       </c>
     </row>
     <row r="531">
@@ -9455,7 +9455,7 @@
         <v>1.16</v>
       </c>
       <c r="E531" t="n">
-        <v>0.9999999620030441</v>
+        <v>0.9999999657601456</v>
       </c>
     </row>
     <row r="532">
@@ -9472,7 +9472,7 @@
         <v>2.9</v>
       </c>
       <c r="E532" t="n">
-        <v>0.9999991827342134</v>
+        <v>0.9999992315876532</v>
       </c>
     </row>
     <row r="533">
@@ -9489,7 +9489,7 @@
         <v>1.28</v>
       </c>
       <c r="E533" t="n">
-        <v>0.9894280593472981</v>
+        <v>0.9904536607642644</v>
       </c>
     </row>
     <row r="534">
@@ -9506,7 +9506,7 @@
         <v>3.49</v>
       </c>
       <c r="E534" t="n">
-        <v>0.9999999393648676</v>
+        <v>0.9999999411640075</v>
       </c>
     </row>
     <row r="535">
@@ -9523,7 +9523,7 @@
         <v>3.41</v>
       </c>
       <c r="E535" t="n">
-        <v>0.9999999999628444</v>
+        <v>0.9999999999641282</v>
       </c>
     </row>
     <row r="536">
@@ -9557,7 +9557,7 @@
         <v>2.7</v>
       </c>
       <c r="E537" t="n">
-        <v>0.9997744437796808</v>
+        <v>0.9997899985280385</v>
       </c>
     </row>
     <row r="538">
@@ -9574,7 +9574,7 @@
         <v>0.44</v>
       </c>
       <c r="E538" t="n">
-        <v>0.999976876269128</v>
+        <v>0.999979169323193</v>
       </c>
     </row>
     <row r="539">
@@ -9591,7 +9591,7 @@
         <v>1.94</v>
       </c>
       <c r="E539" t="n">
-        <v>0.9999999997822409</v>
+        <v>0.9999999998022986</v>
       </c>
     </row>
     <row r="540">
@@ -9625,7 +9625,7 @@
         <v>2.47</v>
       </c>
       <c r="E541" t="n">
-        <v>0.9982550524710991</v>
+        <v>0.9983869980486921</v>
       </c>
     </row>
     <row r="542">
@@ -9642,7 +9642,7 @@
         <v>1.22</v>
       </c>
       <c r="E542" t="n">
-        <v>0.9999993654416445</v>
+        <v>0.9999994306775601</v>
       </c>
     </row>
     <row r="543">
@@ -9659,7 +9659,7 @@
         <v>0.98</v>
       </c>
       <c r="E543" t="n">
-        <v>0.9316666077137851</v>
+        <v>0.9385412698532789</v>
       </c>
     </row>
     <row r="544">
@@ -9676,7 +9676,7 @@
         <v>3.8</v>
       </c>
       <c r="E544" t="n">
-        <v>0.9297726306781481</v>
+        <v>0.9325738521736442</v>
       </c>
     </row>
     <row r="545">
@@ -9710,7 +9710,7 @@
         <v>0.44</v>
       </c>
       <c r="E546" t="n">
-        <v>0.9988204466269919</v>
+        <v>0.9989367015392276</v>
       </c>
     </row>
     <row r="547">
@@ -9727,7 +9727,7 @@
         <v>1.54</v>
       </c>
       <c r="E547" t="n">
-        <v>0.9994334969838903</v>
+        <v>0.9994932147228903</v>
       </c>
     </row>
     <row r="548">
@@ -9744,7 +9744,7 @@
         <v>1.66</v>
       </c>
       <c r="E548" t="n">
-        <v>0.9967210212848596</v>
+        <v>0.9970451218262896</v>
       </c>
     </row>
     <row r="549">
@@ -9761,7 +9761,7 @@
         <v>2.97</v>
       </c>
       <c r="E549" t="n">
-        <v>0.9999999996617199</v>
+        <v>0.9999999996808833</v>
       </c>
     </row>
     <row r="550">
@@ -9778,7 +9778,7 @@
         <v>3.05</v>
       </c>
       <c r="E550" t="n">
-        <v>0.9944948851827415</v>
+        <v>0.9948808845430303</v>
       </c>
     </row>
     <row r="551">
@@ -9795,7 +9795,7 @@
         <v>4.16</v>
       </c>
       <c r="E551" t="n">
-        <v>0.9999999999998339</v>
+        <v>0.9999999999998317</v>
       </c>
     </row>
     <row r="552">
@@ -9812,7 +9812,7 @@
         <v>1.33</v>
       </c>
       <c r="E552" t="n">
-        <v>0.9999998488006739</v>
+        <v>0.9999998635741338</v>
       </c>
     </row>
     <row r="553">
@@ -9829,7 +9829,7 @@
         <v>2.71</v>
       </c>
       <c r="E553" t="n">
-        <v>0.999761756530128</v>
+        <v>0.9997781582112764</v>
       </c>
     </row>
     <row r="554">
@@ -9846,7 +9846,7 @@
         <v>1.57</v>
       </c>
       <c r="E554" t="n">
-        <v>0.9999999970252311</v>
+        <v>0.999999997316892</v>
       </c>
     </row>
     <row r="555">
@@ -9863,7 +9863,7 @@
         <v>1.98</v>
       </c>
       <c r="E555" t="n">
-        <v>0.9996750437356443</v>
+        <v>0.9997042263751432</v>
       </c>
     </row>
     <row r="556">
@@ -9880,7 +9880,7 @@
         <v>1.98</v>
       </c>
       <c r="E556" t="n">
-        <v>0.9999999695987953</v>
+        <v>0.9999999723091965</v>
       </c>
     </row>
     <row r="557">
@@ -9897,7 +9897,7 @@
         <v>1.77</v>
       </c>
       <c r="E557" t="n">
-        <v>0.9999998935691686</v>
+        <v>0.9999999035857126</v>
       </c>
     </row>
     <row r="558">
@@ -9914,7 +9914,7 @@
         <v>1.12</v>
       </c>
       <c r="E558" t="n">
-        <v>0.9999999558272995</v>
+        <v>0.9999999603822046</v>
       </c>
     </row>
     <row r="559">
@@ -9931,7 +9931,7 @@
         <v>2.02</v>
       </c>
       <c r="E559" t="n">
-        <v>0.9999993508120186</v>
+        <v>0.9999994105895867</v>
       </c>
     </row>
     <row r="560">
@@ -9948,7 +9948,7 @@
         <v>2.12</v>
       </c>
       <c r="E560" t="n">
-        <v>0.9999999997163109</v>
+        <v>0.9999999997412869</v>
       </c>
     </row>
     <row r="561">
@@ -9965,7 +9965,7 @@
         <v>4.39</v>
       </c>
       <c r="E561" t="n">
-        <v>0.9999999999997948</v>
+        <v>0.9999999999997877</v>
       </c>
     </row>
     <row r="562">
@@ -9982,7 +9982,7 @@
         <v>0.22</v>
       </c>
       <c r="E562" t="n">
-        <v>0.9926646875623447</v>
+        <v>0.9933478036042275</v>
       </c>
     </row>
     <row r="563">
@@ -9999,7 +9999,7 @@
         <v>3.59</v>
       </c>
       <c r="E563" t="n">
-        <v>0.9999999998551616</v>
+        <v>0.9999999998585789</v>
       </c>
     </row>
     <row r="564">
@@ -10033,7 +10033,7 @@
         <v>1.19</v>
       </c>
       <c r="E565" t="n">
-        <v>0.9999999999999516</v>
+        <v>0.9999999999999565</v>
       </c>
     </row>
     <row r="566">
@@ -10050,7 +10050,7 @@
         <v>0.38</v>
       </c>
       <c r="E566" t="n">
-        <v>0.9999995576598938</v>
+        <v>0.9999995997270223</v>
       </c>
     </row>
     <row r="567">
@@ -10067,7 +10067,7 @@
         <v>2.42</v>
       </c>
       <c r="E567" t="n">
-        <v>0.9999726105329857</v>
+        <v>0.9999747692167451</v>
       </c>
     </row>
     <row r="568">
@@ -10084,7 +10084,7 @@
         <v>3.24</v>
       </c>
       <c r="E568" t="n">
-        <v>0.9999371810594706</v>
+        <v>0.9999400013286645</v>
       </c>
     </row>
     <row r="569">
@@ -10101,7 +10101,7 @@
         <v>3.35</v>
       </c>
       <c r="E569" t="n">
-        <v>0.9999999999428706</v>
+        <v>0.9999999999450586</v>
       </c>
     </row>
     <row r="570">
@@ -10118,7 +10118,7 @@
         <v>1.66</v>
       </c>
       <c r="E570" t="n">
-        <v>0.9997726578939308</v>
+        <v>0.9997941268577419</v>
       </c>
     </row>
     <row r="571">
@@ -10169,7 +10169,7 @@
         <v>0.85</v>
       </c>
       <c r="E573" t="n">
-        <v>0.9999999999617843</v>
+        <v>0.9999999999655449</v>
       </c>
     </row>
     <row r="574">
@@ -10203,7 +10203,7 @@
         <v>5.6</v>
       </c>
       <c r="E575" t="n">
-        <v>0.9999999999988187</v>
+        <v>0.9999999999986304</v>
       </c>
     </row>
     <row r="576">
@@ -10220,7 +10220,7 @@
         <v>2.97</v>
       </c>
       <c r="E576" t="n">
-        <v>0.9999888256523083</v>
+        <v>0.999989480703575</v>
       </c>
     </row>
     <row r="577">
@@ -10237,7 +10237,7 @@
         <v>3.51</v>
       </c>
       <c r="E577" t="n">
-        <v>0.9999938381918848</v>
+        <v>0.9999940904469867</v>
       </c>
     </row>
     <row r="578">
@@ -10254,7 +10254,7 @@
         <v>0.17</v>
       </c>
       <c r="E578" t="n">
-        <v>0.9999978552910944</v>
+        <v>0.9999980490479035</v>
       </c>
     </row>
     <row r="579">
@@ -10271,7 +10271,7 @@
         <v>3.05</v>
       </c>
       <c r="E579" t="n">
-        <v>0.9999926845913505</v>
+        <v>0.9999931281930224</v>
       </c>
     </row>
     <row r="580">
@@ -10305,7 +10305,7 @@
         <v>2.39</v>
       </c>
       <c r="E581" t="n">
-        <v>0.9999999984866146</v>
+        <v>0.9999999986092178</v>
       </c>
     </row>
     <row r="582">
@@ -10322,7 +10322,7 @@
         <v>-0.8100000000000001</v>
       </c>
       <c r="E582" t="n">
-        <v>0.8138053998101487</v>
+        <v>0.8237762761713235</v>
       </c>
     </row>
     <row r="583">
@@ -10356,7 +10356,7 @@
         <v>3.67</v>
       </c>
       <c r="E584" t="n">
-        <v>0.9925765747648362</v>
+        <v>0.9927151120809206</v>
       </c>
     </row>
     <row r="585">
@@ -10373,7 +10373,7 @@
         <v>1.96</v>
       </c>
       <c r="E585" t="n">
-        <v>0.9999185212641514</v>
+        <v>0.9999258654859917</v>
       </c>
     </row>
     <row r="586">
@@ -10390,7 +10390,7 @@
         <v>2.47</v>
       </c>
       <c r="E586" t="n">
-        <v>0.9881966464302278</v>
+        <v>0.9890811191879768</v>
       </c>
     </row>
     <row r="587">
@@ -10407,7 +10407,7 @@
         <v>2.36</v>
       </c>
       <c r="E587" t="n">
-        <v>0.9984604166089627</v>
+        <v>0.9985842965240306</v>
       </c>
     </row>
     <row r="588">
@@ -10424,7 +10424,7 @@
         <v>3.12</v>
       </c>
       <c r="E588" t="n">
-        <v>0.9999998759693721</v>
+        <v>0.9999998821127186</v>
       </c>
     </row>
     <row r="589">
@@ -10441,7 +10441,7 @@
         <v>1.36</v>
       </c>
       <c r="E589" t="n">
-        <v>0.9803702937710724</v>
+        <v>0.982357047122375</v>
       </c>
     </row>
     <row r="590">
@@ -10475,7 +10475,7 @@
         <v>3.18</v>
       </c>
       <c r="E591" t="n">
-        <v>0.9999993387758895</v>
+        <v>0.9999993745635425</v>
       </c>
     </row>
     <row r="592">
@@ -10492,7 +10492,7 @@
         <v>0.91</v>
       </c>
       <c r="E592" t="n">
-        <v>0.9999999983614281</v>
+        <v>0.9999999985931067</v>
       </c>
     </row>
     <row r="593">
@@ -10509,7 +10509,7 @@
         <v>6.78</v>
       </c>
       <c r="E593" t="n">
-        <v>0.9998577545738183</v>
+        <v>0.9998101873292583</v>
       </c>
     </row>
     <row r="594">
@@ -10526,7 +10526,7 @@
         <v>0.66</v>
       </c>
       <c r="E594" t="n">
-        <v>0.9999981988434292</v>
+        <v>0.9999983738968465</v>
       </c>
     </row>
     <row r="595">
@@ -10543,7 +10543,7 @@
         <v>2.24</v>
       </c>
       <c r="E595" t="n">
-        <v>0.9999632298526328</v>
+        <v>0.9999662656729039</v>
       </c>
     </row>
     <row r="596">
@@ -10577,7 +10577,7 @@
         <v>3.82</v>
       </c>
       <c r="E597" t="n">
-        <v>0.9999904566642669</v>
+        <v>0.99999054453114</v>
       </c>
     </row>
     <row r="598">
@@ -10594,7 +10594,7 @@
         <v>1.58</v>
       </c>
       <c r="E598" t="n">
-        <v>0.9999999949639951</v>
+        <v>0.9999999954804579</v>
       </c>
     </row>
     <row r="599">
@@ -10611,7 +10611,7 @@
         <v>2.83</v>
       </c>
       <c r="E599" t="n">
-        <v>0.9999805635219158</v>
+        <v>0.9999818380607508</v>
       </c>
     </row>
     <row r="600">
@@ -10628,7 +10628,7 @@
         <v>2.17</v>
       </c>
       <c r="E600" t="n">
-        <v>0.9999999999790834</v>
+        <v>0.9999999999808509</v>
       </c>
     </row>
     <row r="601">
@@ -10645,7 +10645,7 @@
         <v>1.3</v>
       </c>
       <c r="E601" t="n">
-        <v>0.9999245136418259</v>
+        <v>0.9999320159046707</v>
       </c>
     </row>
     <row r="602">
@@ -10662,7 +10662,7 @@
         <v>1.17</v>
       </c>
       <c r="E602" t="n">
-        <v>0.9999999999999933</v>
+        <v>0.9999999999999938</v>
       </c>
     </row>
     <row r="603">
@@ -10696,7 +10696,7 @@
         <v>9.25</v>
       </c>
       <c r="E604" t="n">
-        <v>0.9473747976366208</v>
+        <v>0.8974789157714557</v>
       </c>
     </row>
     <row r="605">
@@ -10713,7 +10713,7 @@
         <v>1.99</v>
       </c>
       <c r="E605" t="n">
-        <v>0.9708350677048641</v>
+        <v>0.9736025066249654</v>
       </c>
     </row>
     <row r="606">
@@ -10730,7 +10730,7 @@
         <v>2.01</v>
       </c>
       <c r="E606" t="n">
-        <v>0.999993550217727</v>
+        <v>0.9999941217458536</v>
       </c>
     </row>
     <row r="607">
@@ -10747,7 +10747,7 @@
         <v>1.69</v>
       </c>
       <c r="E607" t="n">
-        <v>0.9987002202067535</v>
+        <v>0.9988221899052024</v>
       </c>
     </row>
     <row r="608">
@@ -10764,7 +10764,7 @@
         <v>4.05</v>
       </c>
       <c r="E608" t="n">
-        <v>0.9985668787094794</v>
+        <v>0.9985604687529006</v>
       </c>
     </row>
     <row r="609">
@@ -10781,7 +10781,7 @@
         <v>1.27</v>
       </c>
       <c r="E609" t="n">
-        <v>0.9990416293669843</v>
+        <v>0.9991380433806536</v>
       </c>
     </row>
     <row r="610">
@@ -10815,7 +10815,7 @@
         <v>-1.15</v>
       </c>
       <c r="E611" t="n">
-        <v>0.9976042153039981</v>
+        <v>0.9977119154047003</v>
       </c>
     </row>
     <row r="612">
@@ -10832,7 +10832,7 @@
         <v>4.88</v>
       </c>
       <c r="E612" t="n">
-        <v>0.9999999999000773</v>
+        <v>0.9999999998921081</v>
       </c>
     </row>
     <row r="613">
@@ -10849,7 +10849,7 @@
         <v>2.07</v>
       </c>
       <c r="E613" t="n">
-        <v>0.9999972012641636</v>
+        <v>0.9999974443411154</v>
       </c>
     </row>
     <row r="614">
@@ -10866,7 +10866,7 @@
         <v>2.1</v>
       </c>
       <c r="E614" t="n">
-        <v>0.9999999994295754</v>
+        <v>0.9999999994800168</v>
       </c>
     </row>
     <row r="615">
@@ -10883,7 +10883,7 @@
         <v>4.66</v>
       </c>
       <c r="E615" t="n">
-        <v>0.9999162146390987</v>
+        <v>0.9999113352093298</v>
       </c>
     </row>
     <row r="616">
@@ -10900,7 +10900,7 @@
         <v>3.97</v>
       </c>
       <c r="E616" t="n">
-        <v>0.9999760122982712</v>
+        <v>0.9999760072381958</v>
       </c>
     </row>
     <row r="617">
@@ -10917,7 +10917,7 @@
         <v>0.79</v>
       </c>
       <c r="E617" t="n">
-        <v>0.9982579491636695</v>
+        <v>0.9984695401641879</v>
       </c>
     </row>
     <row r="618">
@@ -10934,7 +10934,7 @@
         <v>1.93</v>
       </c>
       <c r="E618" t="n">
-        <v>0.9999943152782359</v>
+        <v>0.9999948344677622</v>
       </c>
     </row>
     <row r="619">
@@ -10968,7 +10968,7 @@
         <v>1.32</v>
       </c>
       <c r="E620" t="n">
-        <v>0.9926895772054889</v>
+        <v>0.9937961248464414</v>
       </c>
     </row>
     <row r="621">
@@ -10985,7 +10985,7 @@
         <v>0.47</v>
       </c>
       <c r="E621" t="n">
-        <v>0.9794799796334808</v>
+        <v>0.9816108291610591</v>
       </c>
     </row>
     <row r="622">
@@ -11002,7 +11002,7 @@
         <v>3.63</v>
       </c>
       <c r="E622" t="n">
-        <v>0.9999998310915692</v>
+        <v>0.9999998347170583</v>
       </c>
     </row>
     <row r="623">
@@ -11019,7 +11019,7 @@
         <v>3.4</v>
       </c>
       <c r="E623" t="n">
-        <v>0.9999999999999849</v>
+        <v>0.9999999999999853</v>
       </c>
     </row>
     <row r="624">
@@ -11053,7 +11053,7 @@
         <v>2.73</v>
       </c>
       <c r="E625" t="n">
-        <v>0.9999999854343705</v>
+        <v>0.99999998640347</v>
       </c>
     </row>
     <row r="626">
@@ -11070,7 +11070,7 @@
         <v>0.26</v>
       </c>
       <c r="E626" t="n">
-        <v>0.9999999998937898</v>
+        <v>0.9999999999035731</v>
       </c>
     </row>
     <row r="627">
@@ -11087,7 +11087,7 @@
         <v>2.14</v>
       </c>
       <c r="E627" t="n">
-        <v>0.9485870162682847</v>
+        <v>0.9530389413771146</v>
       </c>
     </row>
     <row r="628">
@@ -11104,7 +11104,7 @@
         <v>1.36</v>
       </c>
       <c r="E628" t="n">
-        <v>0.9999999999999813</v>
+        <v>0.9999999999999831</v>
       </c>
     </row>
     <row r="629">
@@ -11121,7 +11121,7 @@
         <v>2.91</v>
       </c>
       <c r="E629" t="n">
-        <v>0.9940346528347713</v>
+        <v>0.9944605326151663</v>
       </c>
     </row>
     <row r="630">
@@ -11138,7 +11138,7 @@
         <v>2.33</v>
       </c>
       <c r="E630" t="n">
-        <v>0.9999900996470226</v>
+        <v>0.9999909155598349</v>
       </c>
     </row>
     <row r="631">
@@ -11155,7 +11155,7 @@
         <v>4.88</v>
       </c>
       <c r="E631" t="n">
-        <v>0.9999999999988978</v>
+        <v>0.9999999999988178</v>
       </c>
     </row>
     <row r="632">
@@ -11172,7 +11172,7 @@
         <v>5.33</v>
       </c>
       <c r="E632" t="n">
-        <v>0.9999751151816766</v>
+        <v>0.9999719435408851</v>
       </c>
     </row>
   </sheetData>
